--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N450"/>
+  <dimension ref="A1:N460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20628,6 +20628,468 @@
         </is>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>371.2044444444445</v>
+      </c>
+      <c r="C451" t="n">
+        <v>364.6444444444445</v>
+      </c>
+      <c r="D451" t="n">
+        <v>363.6742857142857</v>
+      </c>
+      <c r="E451" t="n">
+        <v>362.4766666666667</v>
+      </c>
+      <c r="F451" t="n">
+        <v>338.61</v>
+      </c>
+      <c r="G451" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="H451" t="n">
+        <v>354.9866666666667</v>
+      </c>
+      <c r="I451" t="n">
+        <v>384.08</v>
+      </c>
+      <c r="J451" t="n">
+        <v>382.9666666666667</v>
+      </c>
+      <c r="K451" t="n">
+        <v>346.0609090909091</v>
+      </c>
+      <c r="L451" t="n">
+        <v>355.4533333333333</v>
+      </c>
+      <c r="M451" t="n">
+        <v>369.26</v>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>369.7577777777778</v>
+      </c>
+      <c r="C452" t="n">
+        <v>367.2677777777778</v>
+      </c>
+      <c r="D452" t="n">
+        <v>367.4785714285715</v>
+      </c>
+      <c r="E452" t="n">
+        <v>365.8866666666667</v>
+      </c>
+      <c r="F452" t="n">
+        <v>345.76</v>
+      </c>
+      <c r="G452" t="n">
+        <v>358.76</v>
+      </c>
+      <c r="H452" t="n">
+        <v>359.7866666666667</v>
+      </c>
+      <c r="I452" t="n">
+        <v>388.34</v>
+      </c>
+      <c r="J452" t="n">
+        <v>390.0266666666667</v>
+      </c>
+      <c r="K452" t="n">
+        <v>350.9518181818182</v>
+      </c>
+      <c r="L452" t="n">
+        <v>365.0933333333333</v>
+      </c>
+      <c r="M452" t="n">
+        <v>376.67</v>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>366.9855555555556</v>
+      </c>
+      <c r="C453" t="n">
+        <v>357.8355555555555</v>
+      </c>
+      <c r="D453" t="n">
+        <v>359.7028571428572</v>
+      </c>
+      <c r="E453" t="n">
+        <v>355.1433333333333</v>
+      </c>
+      <c r="F453" t="n">
+        <v>339.03</v>
+      </c>
+      <c r="G453" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="H453" t="n">
+        <v>351.3533333333333</v>
+      </c>
+      <c r="I453" t="n">
+        <v>371.15</v>
+      </c>
+      <c r="J453" t="n">
+        <v>380.9733333333333</v>
+      </c>
+      <c r="K453" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="L453" t="n">
+        <v>361.9266666666667</v>
+      </c>
+      <c r="M453" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="n">
+        <v>356.5633333333333</v>
+      </c>
+      <c r="F454" t="n">
+        <v>340.52</v>
+      </c>
+      <c r="G454" t="n">
+        <v>354.81</v>
+      </c>
+      <c r="H454" t="n">
+        <v>359.4633333333333</v>
+      </c>
+      <c r="I454" t="n">
+        <v>372.81</v>
+      </c>
+      <c r="J454" t="n">
+        <v>372.7333333333333</v>
+      </c>
+      <c r="K454" t="n">
+        <v>343.8854545454545</v>
+      </c>
+      <c r="L454" t="n">
+        <v>356.5166666666667</v>
+      </c>
+      <c r="M454" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>373.8166666666667</v>
+      </c>
+      <c r="C455" t="n">
+        <v>366.9866666666667</v>
+      </c>
+      <c r="D455" t="n">
+        <v>360.8414285714285</v>
+      </c>
+      <c r="E455" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="F455" t="n">
+        <v>342.72</v>
+      </c>
+      <c r="G455" t="n">
+        <v>335.63</v>
+      </c>
+      <c r="H455" t="n">
+        <v>347.18</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>349.86</v>
+      </c>
+      <c r="L455" t="n">
+        <v>362.22</v>
+      </c>
+      <c r="M455" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>381.8711111111111</v>
+      </c>
+      <c r="C456" t="n">
+        <v>370.7911111111111</v>
+      </c>
+      <c r="D456" t="n">
+        <v>367.1457142857143</v>
+      </c>
+      <c r="E456" t="n">
+        <v>360.5566666666667</v>
+      </c>
+      <c r="F456" t="n">
+        <v>348.51</v>
+      </c>
+      <c r="G456" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="H456" t="n">
+        <v>354.2966666666667</v>
+      </c>
+      <c r="I456" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="J456" t="n">
+        <v>385.9166666666667</v>
+      </c>
+      <c r="K456" t="n">
+        <v>349.9063636363636</v>
+      </c>
+      <c r="L456" t="n">
+        <v>362.4033333333333</v>
+      </c>
+      <c r="M456" t="n">
+        <v>362.96</v>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>375.2577777777778</v>
+      </c>
+      <c r="C457" t="n">
+        <v>368.0077777777778</v>
+      </c>
+      <c r="D457" t="n">
+        <v>361.4642857142857</v>
+      </c>
+      <c r="E457" t="n">
+        <v>359.4266666666667</v>
+      </c>
+      <c r="F457" t="n">
+        <v>351.1</v>
+      </c>
+      <c r="G457" t="n">
+        <v>350.61</v>
+      </c>
+      <c r="H457" t="n">
+        <v>353.2066666666667</v>
+      </c>
+      <c r="I457" t="n">
+        <v>370.89</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>356.6181818181818</v>
+      </c>
+      <c r="L457" t="n">
+        <v>364.2033333333333</v>
+      </c>
+      <c r="M457" t="n">
+        <v>365.51</v>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>370.2777777777778</v>
+      </c>
+      <c r="C458" t="n">
+        <v>363.8177777777778</v>
+      </c>
+      <c r="D458" t="n">
+        <v>362.8771428571428</v>
+      </c>
+      <c r="E458" t="n">
+        <v>355.1666666666667</v>
+      </c>
+      <c r="F458" t="n">
+        <v>342.28</v>
+      </c>
+      <c r="G458" t="n">
+        <v>352.01</v>
+      </c>
+      <c r="H458" t="n">
+        <v>356.2666666666667</v>
+      </c>
+      <c r="I458" t="n">
+        <v>376.19</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>352.6509090909091</v>
+      </c>
+      <c r="L458" t="n">
+        <v>362.1933333333333</v>
+      </c>
+      <c r="M458" t="n">
+        <v>360.82</v>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>373.8544444444445</v>
+      </c>
+      <c r="C459" t="n">
+        <v>368.8744444444445</v>
+      </c>
+      <c r="D459" t="n">
+        <v>366.62</v>
+      </c>
+      <c r="E459" t="n">
+        <v>363.5566666666667</v>
+      </c>
+      <c r="F459" t="n">
+        <v>342.73</v>
+      </c>
+      <c r="G459" t="n">
+        <v>362.83</v>
+      </c>
+      <c r="H459" t="n">
+        <v>359.5566666666667</v>
+      </c>
+      <c r="I459" t="n">
+        <v>382.95</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>352.5318181818182</v>
+      </c>
+      <c r="L459" t="n">
+        <v>366.5833333333333</v>
+      </c>
+      <c r="M459" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>372.3177777777778</v>
+      </c>
+      <c r="C460" t="n">
+        <v>368.6977777777778</v>
+      </c>
+      <c r="D460" t="n">
+        <v>362.8285714285714</v>
+      </c>
+      <c r="E460" t="n">
+        <v>365.3166666666667</v>
+      </c>
+      <c r="F460" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="G460" t="n">
+        <v>340.13</v>
+      </c>
+      <c r="H460" t="n">
+        <v>360.5766666666667</v>
+      </c>
+      <c r="I460" t="n">
+        <v>380.34</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>355.1727272727272</v>
+      </c>
+      <c r="L460" t="n">
+        <v>363.8333333333333</v>
+      </c>
+      <c r="M460" t="n">
+        <v>364.96</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20639,7 +21101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25557,6 +26019,106 @@
       </c>
       <c r="B491" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -25725,28 +26287,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3989097908185307</v>
+        <v>0.4292975655285802</v>
       </c>
       <c r="J2" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04794301855386207</v>
+        <v>0.05709663044755486</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34786846808917</v>
+        <v>10.2809140246691</v>
       </c>
       <c r="N2" t="n">
-        <v>173.0681039387265</v>
+        <v>170.7479401054217</v>
       </c>
       <c r="O2" t="n">
-        <v>13.15553510651416</v>
+        <v>13.06705552545874</v>
       </c>
       <c r="P2" t="n">
-        <v>355.3109599341566</v>
+        <v>355.021437957175</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25802,28 +26364,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4659767350307261</v>
+        <v>0.498111675484665</v>
       </c>
       <c r="J3" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K3" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07471440235801663</v>
+        <v>0.08720270480768499</v>
       </c>
       <c r="M3" t="n">
-        <v>9.680639837692786</v>
+        <v>9.647659583188775</v>
       </c>
       <c r="N3" t="n">
-        <v>148.7442794189385</v>
+        <v>147.022806999766</v>
       </c>
       <c r="O3" t="n">
-        <v>12.1960763944368</v>
+        <v>12.12529616132183</v>
       </c>
       <c r="P3" t="n">
-        <v>346.6346559749756</v>
+        <v>346.328586843142</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25879,28 +26441,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4673788454135945</v>
+        <v>0.4989166265592984</v>
       </c>
       <c r="J4" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K4" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06969294263915182</v>
+        <v>0.08141061461051546</v>
       </c>
       <c r="M4" t="n">
-        <v>10.02334129609466</v>
+        <v>9.966676680101543</v>
       </c>
       <c r="N4" t="n">
-        <v>160.3097965758164</v>
+        <v>158.1391171295413</v>
       </c>
       <c r="O4" t="n">
-        <v>12.66135050363177</v>
+        <v>12.57533765469307</v>
       </c>
       <c r="P4" t="n">
-        <v>344.1174913125727</v>
+        <v>343.8171976085898</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25956,28 +26518,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.523044217611449</v>
+        <v>0.557411011752826</v>
       </c>
       <c r="J5" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K5" t="n">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07087422712906111</v>
+        <v>0.08287882906732791</v>
       </c>
       <c r="M5" t="n">
-        <v>11.13854233422313</v>
+        <v>11.05333038900027</v>
       </c>
       <c r="N5" t="n">
-        <v>197.3949956014307</v>
+        <v>194.1851839759093</v>
       </c>
       <c r="O5" t="n">
-        <v>14.04973293701452</v>
+        <v>13.93503440885272</v>
       </c>
       <c r="P5" t="n">
-        <v>339.7334766967707</v>
+        <v>339.4053522919919</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26033,28 +26595,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4469473531441338</v>
+        <v>0.4845382825680457</v>
       </c>
       <c r="J6" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K6" t="n">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05681943221367303</v>
+        <v>0.0685919674805584</v>
       </c>
       <c r="M6" t="n">
-        <v>10.40403809427604</v>
+        <v>10.32889012824837</v>
       </c>
       <c r="N6" t="n">
-        <v>185.881215137351</v>
+        <v>183.2854005516364</v>
       </c>
       <c r="O6" t="n">
-        <v>13.63382613712493</v>
+        <v>13.5382938567471</v>
       </c>
       <c r="P6" t="n">
-        <v>323.3529406996247</v>
+        <v>322.9982313792935</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26110,28 +26672,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.28863724372801</v>
+        <v>0.3483558199775029</v>
       </c>
       <c r="J7" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01663145721924486</v>
+        <v>0.0247868733169424</v>
       </c>
       <c r="M7" t="n">
-        <v>12.67934723906265</v>
+        <v>12.67654243948496</v>
       </c>
       <c r="N7" t="n">
-        <v>277.9844442523547</v>
+        <v>276.5335566262521</v>
       </c>
       <c r="O7" t="n">
-        <v>16.67286550813491</v>
+        <v>16.62929813991715</v>
       </c>
       <c r="P7" t="n">
-        <v>330.8029324220854</v>
+        <v>330.2443687415961</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26187,28 +26749,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3050592905336261</v>
+        <v>0.3046810760444688</v>
       </c>
       <c r="J8" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K8" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04535488899182494</v>
+        <v>0.0473620986534834</v>
       </c>
       <c r="M8" t="n">
-        <v>7.87856854340185</v>
+        <v>7.765807973106453</v>
       </c>
       <c r="N8" t="n">
-        <v>111.236521678425</v>
+        <v>108.8317286807329</v>
       </c>
       <c r="O8" t="n">
-        <v>10.54687260179173</v>
+        <v>10.43224466165997</v>
       </c>
       <c r="P8" t="n">
-        <v>347.9931523322872</v>
+        <v>347.9965311188713</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26264,28 +26826,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2896853692017846</v>
+        <v>0.3116732462477336</v>
       </c>
       <c r="J9" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K9" t="n">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03062117972605716</v>
+        <v>0.0370172336877348</v>
       </c>
       <c r="M9" t="n">
-        <v>9.326850309973382</v>
+        <v>9.217218030408125</v>
       </c>
       <c r="N9" t="n">
-        <v>147.1068581513509</v>
+        <v>144.4683069421142</v>
       </c>
       <c r="O9" t="n">
-        <v>12.12876160831562</v>
+        <v>12.01949695045987</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3219887173868</v>
+        <v>366.1168457103705</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26341,28 +26903,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1742299269139778</v>
+        <v>0.1686755312578731</v>
       </c>
       <c r="J10" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K10" t="n">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007548135928027389</v>
+        <v>0.007248475575344693</v>
       </c>
       <c r="M10" t="n">
-        <v>12.12228509642767</v>
+        <v>12.03530869036752</v>
       </c>
       <c r="N10" t="n">
-        <v>220.8130788537892</v>
+        <v>218.5395701004473</v>
       </c>
       <c r="O10" t="n">
-        <v>14.85978057892475</v>
+        <v>14.78308391711443</v>
       </c>
       <c r="P10" t="n">
-        <v>380.4257976060456</v>
+        <v>380.4783183921144</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26418,28 +26980,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7476217298892039</v>
+        <v>0.7659463444146848</v>
       </c>
       <c r="J11" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K11" t="n">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1985114959136711</v>
+        <v>0.2138379062900202</v>
       </c>
       <c r="M11" t="n">
-        <v>8.441249186078922</v>
+        <v>8.347407303677121</v>
       </c>
       <c r="N11" t="n">
-        <v>125.2298539952635</v>
+        <v>122.8616843561716</v>
       </c>
       <c r="O11" t="n">
-        <v>11.19061454949028</v>
+        <v>11.08429900156846</v>
       </c>
       <c r="P11" t="n">
-        <v>327.5621649936979</v>
+        <v>327.388478155657</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26495,28 +27057,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7444596650678131</v>
+        <v>0.7652822525198616</v>
       </c>
       <c r="J12" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K12" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2307881193080864</v>
+        <v>0.2488194690480021</v>
       </c>
       <c r="M12" t="n">
-        <v>7.844729207488527</v>
+        <v>7.784429151941212</v>
       </c>
       <c r="N12" t="n">
-        <v>102.358369607516</v>
+        <v>100.5768730137667</v>
       </c>
       <c r="O12" t="n">
-        <v>10.11723132124179</v>
+        <v>10.0288021724315</v>
       </c>
       <c r="P12" t="n">
-        <v>338.5738457873159</v>
+        <v>338.3762639136353</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26572,28 +27134,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5994546321097186</v>
+        <v>0.6202270189037054</v>
       </c>
       <c r="J13" t="n">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K13" t="n">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1562150186102153</v>
+        <v>0.171156505867244</v>
       </c>
       <c r="M13" t="n">
-        <v>7.935916249479939</v>
+        <v>7.854681674219517</v>
       </c>
       <c r="N13" t="n">
-        <v>107.6951307758204</v>
+        <v>106.1707539512864</v>
       </c>
       <c r="O13" t="n">
-        <v>10.37762645193112</v>
+        <v>10.30391934902862</v>
       </c>
       <c r="P13" t="n">
-        <v>344.8912581396518</v>
+        <v>344.6948651143995</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26630,7 +27192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N450"/>
+  <dimension ref="A1:N460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56174,6 +56736,690 @@
         </is>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-34.96393950516888,173.64170105732657</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-34.96436668864814,173.64243668343312</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-34.96475036396561,173.643203437155</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-34.96509794797593,173.6439919546403</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-34.96553781788404,173.64476111273814</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>-34.965638897926674,173.64568150410537</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-34.96566096607849,173.6465872808191</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-34.96536858201436,173.64747602521973</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>-34.96536279749274,173.64838109496526</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-34.965711422748385,173.649274956186</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>-34.96565424202664,173.6501957140227</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>-34.96522215959279,173.6509512144565</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-34.96395074056736,173.64169300593173</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-34.96434631472598,173.6424512834957</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-34.964720332419915,173.64322357594062</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-34.9650696118977,173.64400645697822</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-34.96547666134936,173.6447859057491</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-34.965602498961566,173.64568936789502</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-34.965617685619314,173.64658682214818</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-34.96533019322055,173.64747437349257</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-34.96529913724562,173.64838078682297</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-34.96566733571586,173.6492763437304</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-34.96556919369478,173.65017389178752</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-34.965162088894076,173.6509156740265</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-34.96397227076498,173.64167757717746</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-34.964419569366356,173.64239878878573</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-34.96478171495606,173.64318241354792</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-34.96515888577261,173.6439607667834</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-34.96553422547237,173.6447625691118</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-34.96563410391668,173.64568253982438</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-34.965693726981414,173.6465876280081</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-34.96548510011208,173.64748103857193</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-34.96538077144341,173.64838118196695</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-34.965691690113786,173.64927557722834</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-34.96559713142545,173.65018106022063</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-34.965290336984445,173.65099155122937</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-34.96514708599988,173.64396680589016</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-34.96552148096411,173.6447677357698</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-34.965637566257236,173.64568179180512</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-34.96562060103914,173.64658685304474</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-34.96547014109891,173.64748039493878</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-34.9654550717874,173.64838154161384</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-34.96573103246368,173.6492743390121</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-34.965644860831254,173.6501933069343</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-34.96532235846528,173.65101049658597</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-34.96391921759317,173.6417155955924</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-34.96434849795448,173.64244971898276</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-34.964772726920685,173.6431884408211</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-34.965106063782954,173.64398780098745</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-34.96550266356895,173.64477536438943</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-34.96580784238308,173.6456450045258</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-34.965731356935734,173.6465880267982</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-34.96567717744935,173.64927603398317</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-34.96559454350936,173.65018039619716</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-34.9652960116775,173.65099490863327</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-34.96385666350469,173.64176042238242</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-34.964318951018384,173.64247089246297</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-34.96472296003934,173.64322181389198</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-34.965113902599846,173.64398378909672</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-34.96545313960386,173.6447954415129</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-34.96570201905732,173.64566786712751</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-34.96566718764447,173.6465873467531</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-34.96545491174208,173.64747973967397</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-34.96533619724792,173.64838096620878</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-34.96567675952396,173.64927604713645</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>-34.96559292606182,173.6501799811825</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-34.96527323183764,173.65098143105766</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-34.96390802533988,173.64172361606177</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-34.964340567571,173.64245540193645</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-34.96476781000283,173.64319173804898</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-34.965123292560534,173.64397898333263</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-34.96543098639555,173.64480442246375</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-34.965674853001346,173.64567373620906</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-34.965677015915354,173.64658745090978</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>-34.96548744309003,173.647481139382</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>-34.96561625867573,173.64927795126889</t>
+        </is>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>-34.96557704566757,173.650175906494</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>-34.96525255973955,173.65096920052406</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>-34.9639467020371,173.64169589998173</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-34.96437310889262,173.64243208264952</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-34.96475665671867,173.64319921730993</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-34.96515869187965,173.64396086601758</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-34.96550642704803,173.64477383866577</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-34.96566242408671,173.64567642140852</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-34.96564942462275,173.64658715850678</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>-34.9654396823852,173.64747908440944</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>-34.96565201997902,173.64927682576</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>-34.965594778774474,173.65018045656294</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>-34.965290580185595,173.6509916951181</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-34.963918924195625,173.64171580584372</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-34.9643338366686,173.6424602253348</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-34.96472711009913,173.64321903091366</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-34.96508897349973,173.64399654775718</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-34.96550257803534,173.64477539906494</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-34.96556636632971,173.64569717413806</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-34.96561975947465,173.64658684412612</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>-34.965378764957244,173.64747646335428</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>-34.96565309347369,173.6492767919741</t>
+        </is>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>-34.965556048257106,173.65017051885283</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>-34.9652344007189,173.65095845684476</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-34.96393085857153,173.64170725355982</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-34.96433520873718,173.64245924210363</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-34.964757040148065,173.64319896018674</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-34.96507434842704,173.64400403283443</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-34.96553260033374,173.64476322794746</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-34.965767892302694,173.6456536355482</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-34.96561056237705,173.64658674665867</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>-34.96540228485185,173.64747747532917</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>-34.96562928811485,173.64927754119583</t>
+        </is>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>-34.965580309970846,173.65017674406872</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>-34.965257018427494,173.65097183848175</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -26132,7 +26132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26223,35 +26223,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26310,27 +26315,28 @@
       <c r="P2" t="n">
         <v>355.021437957175</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.63963505473743 -34.96682241162786, 173.64479388439295 -34.95962332455918)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.6396350547374</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.96682241162786</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.644793884393</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.95962332455918</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.6422144695652</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.96322286809352</v>
       </c>
     </row>
@@ -26387,27 +26393,28 @@
       <c r="P3" t="n">
         <v>346.328586843142</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.64040719872483 -34.967198655477915, 173.64556599909426 -34.95999955950727)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.6404071987248</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.96719865547792</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.6455659990943</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.95999955950727</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.6429865989095</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.96359910749259</v>
       </c>
     </row>
@@ -26464,27 +26471,28 @@
       <c r="P4" t="n">
         <v>343.8171976085898</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.6412781836205 -34.96762124257297, 173.64618488631905 -34.960304067040894)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.6412781836205</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.96762124257297</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.646184886319</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.96030406704089</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.6437315349698</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.96396265480693</v>
       </c>
     </row>
@@ -26541,27 +26549,28 @@
       <c r="P5" t="n">
         <v>339.4053522919919</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.64245032683303 -34.96811001045479, 173.64639176444925 -34.960408680187484)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.642450326833</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.96811001045479</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.6463917644492</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.96040868018748</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.6444210456411</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.96425934532114</v>
       </c>
     </row>
@@ -26618,27 +26627,28 @@
       <c r="P6" t="n">
         <v>322.9982313792935</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.64358692283108 -34.968434065580425, 173.64680026194674 -34.96050756427983)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.6435869228311</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.96843406558042</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.6468002619467</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.96050756427983</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.6451935923889</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.96447081493012</v>
       </c>
     </row>
@@ -26695,27 +26705,28 @@
       <c r="P7" t="n">
         <v>330.2443687415961</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.64500124174594 -34.9687874947251, 173.64677843070393 -34.96056126974506)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.6450012417459</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.9687874947251</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.6467784307039</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.96056126974506</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.6458898362249</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.96467438223507</v>
       </c>
     </row>
@@ -26772,27 +26783,28 @@
       <c r="P8" t="n">
         <v>347.9965311188713</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.64662120443742 -34.96886179561121, 173.64653266928562 -34.960507223716505)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.6466212044374</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.96886179561121</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.6465326692856</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.9605072237165</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.6465769368615</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.96468450966385</v>
       </c>
     </row>
@@ -26849,27 +26861,28 @@
       <c r="P9" t="n">
         <v>366.1168457103705</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.64762495184334 -34.96882970008961, 173.6472657038682 -34.960480031501554)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.6476249518433</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.96882970008961</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.6472657038682</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.96048003150155</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.6474453278558</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.96465486579558</v>
       </c>
     </row>
@@ -26926,27 +26939,28 @@
       <c r="P10" t="n">
         <v>380.4783183921144</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.64839781192032 -34.968816019241316, 173.64835737289368 -34.96046119613396)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.6483978119203</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.96881601924132</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.6483573728937</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.96046119613396</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.648377592407</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.96463860768764</v>
       </c>
     </row>
@@ -27003,27 +27017,28 @@
       <c r="P11" t="n">
         <v>327.388478155657</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.64917677636205 -34.96883084172008, 173.64943963563852 -34.96047874598527)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.6491767763621</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.96883084172008</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.6494396356385</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.96047874598527</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.6493082060003</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.96465479385267</v>
       </c>
     </row>
@@ -27080,27 +27095,28 @@
       <c r="P12" t="n">
         <v>338.3762639136353</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.65100039234494 -34.96879020419848, 173.64890283046302 -34.96061513310862)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.6510003923449</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.96879020419848</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.648902830463</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.96061513310862</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.649951611404</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.96470266865354</v>
       </c>
     </row>
@@ -27157,27 +27173,28 @@
       <c r="P13" t="n">
         <v>344.6948651143995</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.6527223549773 -34.96821562756331, 173.648277043611 -34.96070197636201)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.6527223549773</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.96821562756331</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.648277043611</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.96070197636201</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.6504996992941</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.96445880196266</v>
       </c>
     </row>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N460"/>
+  <dimension ref="A1:N464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21090,6 +21090,186 @@
         </is>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>395.34</v>
+      </c>
+      <c r="C461" t="n">
+        <v>382.72</v>
+      </c>
+      <c r="D461" t="n">
+        <v>367.3114285714286</v>
+      </c>
+      <c r="E461" t="n">
+        <v>371.52</v>
+      </c>
+      <c r="F461" t="n">
+        <v>355.4</v>
+      </c>
+      <c r="G461" t="n">
+        <v>345.08</v>
+      </c>
+      <c r="H461" t="n">
+        <v>363.77</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>380.94</v>
+      </c>
+      <c r="K461" t="n">
+        <v>354.4318181818182</v>
+      </c>
+      <c r="L461" t="n">
+        <v>367.65</v>
+      </c>
+      <c r="M461" t="n">
+        <v>365.17</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>362.8011111111111</v>
+      </c>
+      <c r="C462" t="n">
+        <v>353.5611111111111</v>
+      </c>
+      <c r="D462" t="n">
+        <v>353.0285714285715</v>
+      </c>
+      <c r="E462" t="n">
+        <v>339.9666666666667</v>
+      </c>
+      <c r="F462" t="n">
+        <v>313.56</v>
+      </c>
+      <c r="G462" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="H462" t="n">
+        <v>345.0766666666667</v>
+      </c>
+      <c r="I462" t="n">
+        <v>367.21</v>
+      </c>
+      <c r="J462" t="n">
+        <v>384.4466666666667</v>
+      </c>
+      <c r="K462" t="n">
+        <v>345.379090909091</v>
+      </c>
+      <c r="L462" t="n">
+        <v>359.8133333333333</v>
+      </c>
+      <c r="M462" t="n">
+        <v>356.38</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>342.9733333333333</v>
+      </c>
+      <c r="C463" t="n">
+        <v>345.9933333333333</v>
+      </c>
+      <c r="D463" t="n">
+        <v>344.4071428571428</v>
+      </c>
+      <c r="E463" t="n">
+        <v>337.38</v>
+      </c>
+      <c r="F463" t="n">
+        <v>323.21</v>
+      </c>
+      <c r="G463" t="n">
+        <v>323.26</v>
+      </c>
+      <c r="H463" t="n">
+        <v>350.65</v>
+      </c>
+      <c r="I463" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>330.0436363636364</v>
+      </c>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>356.7166666666667</v>
+      </c>
+      <c r="C464" t="n">
+        <v>347.2966666666667</v>
+      </c>
+      <c r="D464" t="n">
+        <v>358.7142857142857</v>
+      </c>
+      <c r="E464" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="F464" t="n">
+        <v>339.38</v>
+      </c>
+      <c r="G464" t="n">
+        <v>338.1</v>
+      </c>
+      <c r="H464" t="n">
+        <v>349.23</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>336.5127272727273</v>
+      </c>
+      <c r="L464" t="n">
+        <v>347.39</v>
+      </c>
+      <c r="M464" t="n">
+        <v>367.11</v>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21101,7 +21281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26119,6 +26299,46 @@
       </c>
       <c r="B501" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -26292,28 +26512,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4292975655285802</v>
+        <v>0.4262595213072164</v>
       </c>
       <c r="J2" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05709663044755486</v>
+        <v>0.05630120359646384</v>
       </c>
       <c r="M2" t="n">
-        <v>10.2809140246691</v>
+        <v>10.33797082129308</v>
       </c>
       <c r="N2" t="n">
-        <v>170.7479401054217</v>
+        <v>172.678649725796</v>
       </c>
       <c r="O2" t="n">
-        <v>13.06705552545874</v>
+        <v>13.14072485541783</v>
       </c>
       <c r="P2" t="n">
-        <v>355.021437957175</v>
+        <v>355.0513088933474</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26370,28 +26590,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.498111675484665</v>
+        <v>0.4948497028985995</v>
       </c>
       <c r="J3" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K3" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08720270480768499</v>
+        <v>0.08655982068203838</v>
       </c>
       <c r="M3" t="n">
-        <v>9.647659583188775</v>
+        <v>9.684506422393154</v>
       </c>
       <c r="N3" t="n">
-        <v>147.022806999766</v>
+        <v>147.7809251549393</v>
       </c>
       <c r="O3" t="n">
-        <v>12.12529616132183</v>
+        <v>12.15651780547947</v>
       </c>
       <c r="P3" t="n">
-        <v>346.328586843142</v>
+        <v>346.3605515570312</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26448,28 +26668,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4989166265592984</v>
+        <v>0.4974503853724687</v>
       </c>
       <c r="J4" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08141061461051546</v>
+        <v>0.08215935948202069</v>
       </c>
       <c r="M4" t="n">
-        <v>9.966676680101543</v>
+        <v>9.939477395722172</v>
       </c>
       <c r="N4" t="n">
-        <v>158.1391171295413</v>
+        <v>157.291073467238</v>
       </c>
       <c r="O4" t="n">
-        <v>12.57533765469307</v>
+        <v>12.54157380344421</v>
       </c>
       <c r="P4" t="n">
-        <v>343.8171976085898</v>
+        <v>343.831493170111</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26526,28 +26746,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.557411011752826</v>
+        <v>0.5523027086983981</v>
       </c>
       <c r="J5" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08287882906732791</v>
+        <v>0.08225405146984632</v>
       </c>
       <c r="M5" t="n">
-        <v>11.05333038900027</v>
+        <v>11.06451919313699</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1851839759093</v>
+        <v>194.1817745635264</v>
       </c>
       <c r="O5" t="n">
-        <v>13.93503440885272</v>
+        <v>13.93491207591661</v>
       </c>
       <c r="P5" t="n">
-        <v>339.4053522919919</v>
+        <v>339.455062680398</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26604,28 +26824,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4845382825680457</v>
+        <v>0.4798669801350497</v>
       </c>
       <c r="J6" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0685919674805584</v>
+        <v>0.06773235999891003</v>
       </c>
       <c r="M6" t="n">
-        <v>10.32889012824837</v>
+        <v>10.3722753011826</v>
       </c>
       <c r="N6" t="n">
-        <v>183.2854005516364</v>
+        <v>184.0386713170686</v>
       </c>
       <c r="O6" t="n">
-        <v>13.5382938567471</v>
+        <v>13.56608533502088</v>
       </c>
       <c r="P6" t="n">
-        <v>322.9982313792935</v>
+        <v>323.0431578703792</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26682,28 +26902,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3483558199775029</v>
+        <v>0.3375529891799879</v>
       </c>
       <c r="J7" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0247868733169424</v>
+        <v>0.0236786251950154</v>
       </c>
       <c r="M7" t="n">
-        <v>12.67654243948496</v>
+        <v>12.64187845365074</v>
       </c>
       <c r="N7" t="n">
-        <v>276.5335566262521</v>
+        <v>274.8990876555961</v>
       </c>
       <c r="O7" t="n">
-        <v>16.62929813991715</v>
+        <v>16.58008105093567</v>
       </c>
       <c r="P7" t="n">
-        <v>330.2443687415961</v>
+        <v>330.3470688988922</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26760,28 +26980,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3046810760444688</v>
+        <v>0.2978947573167179</v>
       </c>
       <c r="J8" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K8" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0473620986534834</v>
+        <v>0.04600456944638465</v>
       </c>
       <c r="M8" t="n">
-        <v>7.765807973106453</v>
+        <v>7.765570218468289</v>
       </c>
       <c r="N8" t="n">
-        <v>108.8317286807329</v>
+        <v>108.358773672241</v>
       </c>
       <c r="O8" t="n">
-        <v>10.43224466165997</v>
+        <v>10.40955203994106</v>
       </c>
       <c r="P8" t="n">
-        <v>347.9965311188713</v>
+        <v>348.0610532071129</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26838,28 +27058,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3116732462477336</v>
+        <v>0.2984007905219755</v>
       </c>
       <c r="J9" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K9" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0370172336877348</v>
+        <v>0.03426209680602155</v>
       </c>
       <c r="M9" t="n">
-        <v>9.217218030408125</v>
+        <v>9.232448799811305</v>
       </c>
       <c r="N9" t="n">
-        <v>144.4683069421142</v>
+        <v>144.483193751178</v>
       </c>
       <c r="O9" t="n">
-        <v>12.01949695045987</v>
+        <v>12.02011621204962</v>
       </c>
       <c r="P9" t="n">
-        <v>366.1168457103705</v>
+        <v>366.242564482211</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26916,28 +27136,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1686755312578731</v>
+        <v>0.1666368226585165</v>
       </c>
       <c r="J10" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K10" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007248475575344693</v>
+        <v>0.007149716895114011</v>
       </c>
       <c r="M10" t="n">
-        <v>12.03530869036752</v>
+        <v>11.98738915325748</v>
       </c>
       <c r="N10" t="n">
-        <v>218.5395701004473</v>
+        <v>217.4921200655989</v>
       </c>
       <c r="O10" t="n">
-        <v>14.78308391711443</v>
+        <v>14.74761404653644</v>
       </c>
       <c r="P10" t="n">
-        <v>380.4783183921144</v>
+        <v>380.4978426249647</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26994,28 +27214,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7659463444146848</v>
+        <v>0.755905149257013</v>
       </c>
       <c r="J11" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K11" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2138379062900202</v>
+        <v>0.2112518667324457</v>
       </c>
       <c r="M11" t="n">
-        <v>8.347407303677121</v>
+        <v>8.354754865234765</v>
       </c>
       <c r="N11" t="n">
-        <v>122.8616843561716</v>
+        <v>122.7796619599247</v>
       </c>
       <c r="O11" t="n">
-        <v>11.08429900156846</v>
+        <v>11.08059844773398</v>
       </c>
       <c r="P11" t="n">
-        <v>327.388478155657</v>
+        <v>327.4851036481463</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27072,28 +27292,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7652822525198616</v>
+        <v>0.765545814897006</v>
       </c>
       <c r="J12" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K12" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2488194690480021</v>
+        <v>0.2508209030549975</v>
       </c>
       <c r="M12" t="n">
-        <v>7.784429151941212</v>
+        <v>7.781463484447674</v>
       </c>
       <c r="N12" t="n">
-        <v>100.5768730137667</v>
+        <v>100.3540859866093</v>
       </c>
       <c r="O12" t="n">
-        <v>10.0288021724315</v>
+        <v>10.01768865490485</v>
       </c>
       <c r="P12" t="n">
-        <v>338.3762639136353</v>
+        <v>338.3739852982688</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27150,28 +27370,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6202270189037054</v>
+        <v>0.623391976410425</v>
       </c>
       <c r="J13" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K13" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L13" t="n">
-        <v>0.171156505867244</v>
+        <v>0.1745516281099196</v>
       </c>
       <c r="M13" t="n">
-        <v>7.854681674219517</v>
+        <v>7.832390084045817</v>
       </c>
       <c r="N13" t="n">
-        <v>106.1707539512864</v>
+        <v>105.5742238628273</v>
       </c>
       <c r="O13" t="n">
-        <v>10.30391934902862</v>
+        <v>10.27493181791623</v>
       </c>
       <c r="P13" t="n">
-        <v>344.6948651143995</v>
+        <v>344.6644441172093</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27209,7 +27429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N460"/>
+  <dimension ref="A1:N464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57437,6 +57657,270 @@
         </is>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-34.96375205860377,173.64183538296368</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-34.96422630616227,173.64253728210912</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-34.9647216518683,173.6432226911351</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-34.965022800581835,173.64403041487557</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-34.96539420693623,173.64481933291216</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-34.96572394721336,173.64566312966352</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-34.965581768849134,173.64658644151564</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>-34.965381072011134,173.64838118342183</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>-34.965635966726715,173.64927733100112</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>-34.965546637652864,173.65016810422466</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>-34.965255316019366,173.6509708312615</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-34.96400476884714,173.64165428870996</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-34.96445276650835,173.64237499948095</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-34.9648344026556,173.64314708175243</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-34.965284999286965,173.64389622195114</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>-34.96575207954783,173.64467425022534</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>-34.965887121095825,173.64562787671744</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>-34.96575032219217,173.64658822778614</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>-34.96552060523956,173.64748256623247</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>-34.96534945228518,173.64838103036874</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>-34.96571756871015,173.649274762755</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>-34.96561577618429,173.65018584420935</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>-34.965326573951124,173.65101299065932</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-34.9641587593009,173.64154393723953</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-34.964511541057476,173.64233288117194</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-34.964902461344764,173.6431014422627</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-34.965306493701924,173.64388522109928</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-34.96566953963312,173.64470771228386</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-34.96591766071111,173.6456212787626</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-34.96570006877086,173.64658769521625</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>-34.96560089729094,173.6474860209224</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>-34.9658558036804,173.64927041209924</t>
+        </is>
+      </c>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-34.9640520230872,173.64162042578621</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-34.964501418823,173.6423401348506</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>-34.964789518871115,173.64317718033107</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-34.96516015992646,173.64396011467318</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-34.965531231795936,173.64476378275643</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-34.965785914227936,173.64564974199908</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-34.965712872573214,173.6465878309068</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>-34.9657974907963,173.64927224737633</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>-34.965725380305464,173.65021396716588</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>-34.965239589010615,173.65096152646694</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N464"/>
+  <dimension ref="A1:N468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21270,6 +21270,188 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>346.9155555555556</v>
+      </c>
+      <c r="C465" t="n">
+        <v>343.9255555555555</v>
+      </c>
+      <c r="D465" t="n">
+        <v>339.7414285714286</v>
+      </c>
+      <c r="E465" t="n">
+        <v>322.3433333333333</v>
+      </c>
+      <c r="F465" t="n">
+        <v>318.21</v>
+      </c>
+      <c r="G465" t="n">
+        <v>319.74</v>
+      </c>
+      <c r="H465" t="n">
+        <v>342.9833333333333</v>
+      </c>
+      <c r="I465" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="J465" t="n">
+        <v>386.3733333333333</v>
+      </c>
+      <c r="K465" t="n">
+        <v>329.9190909090909</v>
+      </c>
+      <c r="L465" t="n">
+        <v>345.0266666666667</v>
+      </c>
+      <c r="M465" t="n">
+        <v>347.08</v>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>358.32</v>
+      </c>
+      <c r="C466" t="n">
+        <v>355.71</v>
+      </c>
+      <c r="D466" t="n">
+        <v>354.9071428571428</v>
+      </c>
+      <c r="E466" t="n">
+        <v>349.21</v>
+      </c>
+      <c r="F466" t="n">
+        <v>331.62</v>
+      </c>
+      <c r="G466" t="n">
+        <v>330.74</v>
+      </c>
+      <c r="H466" t="n">
+        <v>351.9</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="K466" t="n">
+        <v>344.4772727272727</v>
+      </c>
+      <c r="L466" t="n">
+        <v>359.59</v>
+      </c>
+      <c r="M466" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="C467" t="n">
+        <v>348.39</v>
+      </c>
+      <c r="D467" t="n">
+        <v>345.7714285714285</v>
+      </c>
+      <c r="E467" t="n">
+        <v>358.77</v>
+      </c>
+      <c r="F467" t="n">
+        <v>322.1</v>
+      </c>
+      <c r="G467" t="n">
+        <v>323.19</v>
+      </c>
+      <c r="H467" t="n">
+        <v>352.56</v>
+      </c>
+      <c r="I467" t="n">
+        <v>373.57</v>
+      </c>
+      <c r="J467" t="n">
+        <v>385.86</v>
+      </c>
+      <c r="K467" t="n">
+        <v>343.8918181818182</v>
+      </c>
+      <c r="L467" t="n">
+        <v>354.09</v>
+      </c>
+      <c r="M467" t="n">
+        <v>366.69</v>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="n">
+        <v>338.3057142857143</v>
+      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="n">
+        <v>294.73</v>
+      </c>
+      <c r="G468" t="n">
+        <v>302.14</v>
+      </c>
+      <c r="H468" t="n">
+        <v>342.1133333333333</v>
+      </c>
+      <c r="I468" t="n">
+        <v>354.13</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>308.1545454545454</v>
+      </c>
+      <c r="L468" t="n">
+        <v>328.6366666666667</v>
+      </c>
+      <c r="M468" t="n">
+        <v>330.88</v>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21281,7 +21463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26339,6 +26521,46 @@
       </c>
       <c r="B505" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -26512,28 +26734,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4262595213072164</v>
+        <v>0.40971435596113</v>
       </c>
       <c r="J2" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05630120359646384</v>
+        <v>0.05262654698485603</v>
       </c>
       <c r="M2" t="n">
-        <v>10.33797082129308</v>
+        <v>10.34907770121605</v>
       </c>
       <c r="N2" t="n">
-        <v>172.678649725796</v>
+        <v>172.6670269256795</v>
       </c>
       <c r="O2" t="n">
-        <v>13.14072485541783</v>
+        <v>13.14028260448304</v>
       </c>
       <c r="P2" t="n">
-        <v>355.0513088933474</v>
+        <v>355.2117866258585</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26590,28 +26812,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4948497028985995</v>
+        <v>0.4817011219934605</v>
       </c>
       <c r="J3" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K3" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08655982068203838</v>
+        <v>0.08307190705038769</v>
       </c>
       <c r="M3" t="n">
-        <v>9.684506422393154</v>
+        <v>9.680753273222223</v>
       </c>
       <c r="N3" t="n">
-        <v>147.7809251549393</v>
+        <v>147.5622600996541</v>
       </c>
       <c r="O3" t="n">
-        <v>12.15651780547947</v>
+        <v>12.14752073880321</v>
       </c>
       <c r="P3" t="n">
-        <v>346.3605515570312</v>
+        <v>346.4880843421172</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26668,28 +26890,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4974503853724687</v>
+        <v>0.4758991865713834</v>
       </c>
       <c r="J4" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08215935948202069</v>
+        <v>0.07632779882274532</v>
       </c>
       <c r="M4" t="n">
-        <v>9.939477395722172</v>
+        <v>9.958335474460016</v>
       </c>
       <c r="N4" t="n">
-        <v>157.291073467238</v>
+        <v>157.5316613372872</v>
       </c>
       <c r="O4" t="n">
-        <v>12.54157380344421</v>
+        <v>12.55116175249476</v>
       </c>
       <c r="P4" t="n">
-        <v>343.831493170111</v>
+        <v>344.0406534100158</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26746,28 +26968,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5523027086983981</v>
+        <v>0.5384736532512756</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08225405146984632</v>
+        <v>0.07864853349110767</v>
       </c>
       <c r="M5" t="n">
-        <v>11.06451919313699</v>
+        <v>11.08087298448499</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1817745635264</v>
+        <v>195.2418108457297</v>
       </c>
       <c r="O5" t="n">
-        <v>13.93491207591661</v>
+        <v>13.97289557843076</v>
       </c>
       <c r="P5" t="n">
-        <v>339.455062680398</v>
+        <v>339.5895273110799</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26824,28 +27046,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4798669801350497</v>
+        <v>0.4467168289507441</v>
       </c>
       <c r="J6" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K6" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06773235999891003</v>
+        <v>0.05878034510928098</v>
       </c>
       <c r="M6" t="n">
-        <v>10.3722753011826</v>
+        <v>10.46858821849822</v>
       </c>
       <c r="N6" t="n">
-        <v>184.0386713170686</v>
+        <v>187.3397119590069</v>
       </c>
       <c r="O6" t="n">
-        <v>13.56608533502088</v>
+        <v>13.68720979451279</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0431578703792</v>
+        <v>323.3623634828572</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26902,28 +27124,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3375529891799879</v>
+        <v>0.3016458384677732</v>
       </c>
       <c r="J7" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0236786251950154</v>
+        <v>0.01903338432279011</v>
       </c>
       <c r="M7" t="n">
-        <v>12.64187845365074</v>
+        <v>12.72087758550808</v>
       </c>
       <c r="N7" t="n">
-        <v>274.8990876555961</v>
+        <v>277.1225924889076</v>
       </c>
       <c r="O7" t="n">
-        <v>16.58008105093567</v>
+        <v>16.64699950408204</v>
       </c>
       <c r="P7" t="n">
-        <v>330.3470688988922</v>
+        <v>330.689925073723</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26980,28 +27202,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2978947573167179</v>
+        <v>0.2827464408198681</v>
       </c>
       <c r="J8" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K8" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04600456944638465</v>
+        <v>0.04209207878656729</v>
       </c>
       <c r="M8" t="n">
-        <v>7.765570218468289</v>
+        <v>7.772653894107735</v>
       </c>
       <c r="N8" t="n">
-        <v>108.358773672241</v>
+        <v>108.1899884773502</v>
       </c>
       <c r="O8" t="n">
-        <v>10.40955203994106</v>
+        <v>10.40144165379733</v>
       </c>
       <c r="P8" t="n">
-        <v>348.0610532071129</v>
+        <v>348.2054349578984</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27058,28 +27280,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2984007905219755</v>
+        <v>0.2785337001385454</v>
       </c>
       <c r="J9" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03426209680602155</v>
+        <v>0.0301847639655678</v>
       </c>
       <c r="M9" t="n">
-        <v>9.232448799811305</v>
+        <v>9.257609582732863</v>
       </c>
       <c r="N9" t="n">
-        <v>144.483193751178</v>
+        <v>144.9648175350073</v>
       </c>
       <c r="O9" t="n">
-        <v>12.02011621204962</v>
+        <v>12.04013361782199</v>
       </c>
       <c r="P9" t="n">
-        <v>366.242564482211</v>
+        <v>366.4316459552437</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27136,28 +27358,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1666368226585165</v>
+        <v>0.1747525961813849</v>
       </c>
       <c r="J10" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K10" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007149716895114011</v>
+        <v>0.007964070724611694</v>
       </c>
       <c r="M10" t="n">
-        <v>11.98738915325748</v>
+        <v>11.93470557643842</v>
       </c>
       <c r="N10" t="n">
-        <v>217.4921200655989</v>
+        <v>216.3991139556451</v>
       </c>
       <c r="O10" t="n">
-        <v>14.74761404653644</v>
+        <v>14.71051032274697</v>
       </c>
       <c r="P10" t="n">
-        <v>380.4978426249647</v>
+        <v>380.4195628574345</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27214,28 +27436,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.755905149257013</v>
+        <v>0.7284741264048643</v>
       </c>
       <c r="J11" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K11" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2112518667324457</v>
+        <v>0.1967964614947058</v>
       </c>
       <c r="M11" t="n">
-        <v>8.354754865234765</v>
+        <v>8.419717562002001</v>
       </c>
       <c r="N11" t="n">
-        <v>122.7796619599247</v>
+        <v>125.8961531397062</v>
       </c>
       <c r="O11" t="n">
-        <v>11.08059844773398</v>
+        <v>11.22034550001497</v>
       </c>
       <c r="P11" t="n">
-        <v>327.4851036481463</v>
+        <v>327.7497856609955</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27292,28 +27514,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.765545814897006</v>
+        <v>0.7451228119764653</v>
       </c>
       <c r="J12" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K12" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2508209030549975</v>
+        <v>0.2398256472046608</v>
       </c>
       <c r="M12" t="n">
-        <v>7.781463484447674</v>
+        <v>7.815322117810389</v>
       </c>
       <c r="N12" t="n">
-        <v>100.3540859866093</v>
+        <v>101.9166480989701</v>
       </c>
       <c r="O12" t="n">
-        <v>10.01768865490485</v>
+        <v>10.09537756099147</v>
       </c>
       <c r="P12" t="n">
-        <v>338.3739852982688</v>
+        <v>338.5714315580087</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27370,28 +27592,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.623391976410425</v>
+        <v>0.6100464160412045</v>
       </c>
       <c r="J13" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K13" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1745516281099196</v>
+        <v>0.167370573331845</v>
       </c>
       <c r="M13" t="n">
-        <v>7.832390084045817</v>
+        <v>7.905031813080737</v>
       </c>
       <c r="N13" t="n">
-        <v>105.5742238628273</v>
+        <v>107.4615719832314</v>
       </c>
       <c r="O13" t="n">
-        <v>10.27493181791623</v>
+        <v>10.366367347496</v>
       </c>
       <c r="P13" t="n">
-        <v>344.6644441172093</v>
+        <v>344.7933230276211</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27429,7 +27651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N464"/>
+  <dimension ref="A1:N468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57921,6 +58143,274 @@
         </is>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-34.964128142434085,173.6415658777046</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-34.96452760028794,173.64232137298754</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-34.96493929309882,173.64307674321347</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-34.965431443818446,173.64382127144734</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-34.96571230642951,173.64469037443794</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-34.96594891054954,173.64561452736208</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-34.965769197280935,173.64658842781864</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>-34.965590984692085,173.64748559441705</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>-34.96533207946989,173.648380946277</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>-34.965856926342724,173.6492703767658</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>-34.965746230672494,173.65021931710118</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>-34.965401966284425,173.65105759624586</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-34.96403957095728,173.64162934912798</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-34.964436077329665,173.64238695906624</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-34.964819572963805,173.64315702638692</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-34.96520818998398,173.64393553293854</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-34.96559760587579,173.6447368745008</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-34.96585125480287,173.64563562547232</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-34.96568879781804,173.6465875757704</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>-34.96521642100285,173.64838038644353</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>-34.96572569776889,173.64927450691025</t>
+        </is>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>-34.96561774652945,173.65018634977292</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>-34.96522070038567,173.6509503511256</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-34.96405595806367,173.64161760593547</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-34.96449292753645,173.6423462197766</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-34.96489169149533,173.6431086644239</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-34.965128749263265,173.64397619060196</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-34.965679033862145,173.6447038632836</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-34.965918282156764,173.64562114450186</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-34.965682846754966,173.64658751270306</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>-34.96546329239407,173.64748010026344</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>-34.965336708213066,173.64838096868203</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>-34.96573097510138,173.64927434081744</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>-34.965666269954184,173.65019880022777</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>-34.96524299382701,173.65096354090667</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-34.964950626812715,173.6430691429199</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-34.96591313927086,173.6446089556767</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-34.96610515973446,173.64558077028533</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-34.96577704186398,173.64658851095325</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>-34.965638475051946,173.64748763776655</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>-34.96605311362895,173.64926420216352</t>
+        </is>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>-34.965890830458385,173.65025641962052</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>-34.965533294821505,173.65113529649705</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N468"/>
+  <dimension ref="A1:N469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21423,7 +21423,9 @@
       <c r="D468" t="n">
         <v>338.3057142857143</v>
       </c>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="n">
+        <v>317.1733333333333</v>
+      </c>
       <c r="F468" t="n">
         <v>294.73</v>
       </c>
@@ -21447,6 +21449,48 @@
         <v>330.88</v>
       </c>
       <c r="N468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="n">
+        <v>342.9728571428572</v>
+      </c>
+      <c r="E469" t="n">
+        <v>332.81</v>
+      </c>
+      <c r="F469" t="n">
+        <v>324.45</v>
+      </c>
+      <c r="G469" t="n">
+        <v>321.65</v>
+      </c>
+      <c r="H469" t="n">
+        <v>337.41</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="K469" t="n">
+        <v>326.97</v>
+      </c>
+      <c r="L469" t="n">
+        <v>342</v>
+      </c>
+      <c r="M469" t="n">
+        <v>351.51</v>
+      </c>
+      <c r="N469" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21463,7 +21507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26561,6 +26605,16 @@
       </c>
       <c r="B509" t="n">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26791,7 @@
         <v>0.40971435596113</v>
       </c>
       <c r="J2" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K2" t="n">
         <v>421</v>
@@ -26815,7 +26869,7 @@
         <v>0.4817011219934605</v>
       </c>
       <c r="J3" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K3" t="n">
         <v>417</v>
@@ -26890,28 +26944,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4758991865713834</v>
+        <v>0.4699113854716867</v>
       </c>
       <c r="J4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K4" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07632779882274532</v>
+        <v>0.0747111214131625</v>
       </c>
       <c r="M4" t="n">
-        <v>9.958335474460016</v>
+        <v>9.966111503786522</v>
       </c>
       <c r="N4" t="n">
-        <v>157.5316613372872</v>
+        <v>157.5796594879441</v>
       </c>
       <c r="O4" t="n">
-        <v>12.55116175249476</v>
+        <v>12.55307370678369</v>
       </c>
       <c r="P4" t="n">
-        <v>344.0406534100158</v>
+        <v>344.0988887307909</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26968,28 +27022,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5384736532512756</v>
+        <v>0.5131129614687169</v>
       </c>
       <c r="J5" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07864853349110767</v>
+        <v>0.07117410413202452</v>
       </c>
       <c r="M5" t="n">
-        <v>11.08087298448499</v>
+        <v>11.16022299177224</v>
       </c>
       <c r="N5" t="n">
-        <v>195.2418108457297</v>
+        <v>198.443490841448</v>
       </c>
       <c r="O5" t="n">
-        <v>13.97289557843076</v>
+        <v>14.08699722586215</v>
       </c>
       <c r="P5" t="n">
-        <v>339.5895273110799</v>
+        <v>339.8368051498558</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27046,28 +27100,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4467168289507441</v>
+        <v>0.442113415005826</v>
       </c>
       <c r="J6" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05878034510928098</v>
+        <v>0.05782705196165394</v>
       </c>
       <c r="M6" t="n">
-        <v>10.46858821849822</v>
+        <v>10.47082058617029</v>
       </c>
       <c r="N6" t="n">
-        <v>187.3397119590069</v>
+        <v>187.1508314038074</v>
       </c>
       <c r="O6" t="n">
-        <v>13.68720979451279</v>
+        <v>13.68030816187294</v>
       </c>
       <c r="P6" t="n">
-        <v>323.3623634828572</v>
+        <v>323.4067716734388</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27124,28 +27178,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3016458384677732</v>
+        <v>0.2941570326861895</v>
       </c>
       <c r="J7" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01903338432279011</v>
+        <v>0.01815902066544217</v>
       </c>
       <c r="M7" t="n">
-        <v>12.72087758550808</v>
+        <v>12.73212305284116</v>
       </c>
       <c r="N7" t="n">
-        <v>277.1225924889076</v>
+        <v>277.1334668625811</v>
       </c>
       <c r="O7" t="n">
-        <v>16.64699950408204</v>
+        <v>16.64732611750551</v>
       </c>
       <c r="P7" t="n">
-        <v>330.689925073723</v>
+        <v>330.7615715766653</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27202,28 +27256,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2827464408198681</v>
+        <v>0.2745760572525372</v>
       </c>
       <c r="J8" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K8" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04209207878656729</v>
+        <v>0.03969064688871926</v>
       </c>
       <c r="M8" t="n">
-        <v>7.772653894107735</v>
+        <v>7.799235668910996</v>
       </c>
       <c r="N8" t="n">
-        <v>108.1899884773502</v>
+        <v>108.7319217314665</v>
       </c>
       <c r="O8" t="n">
-        <v>10.40144165379733</v>
+        <v>10.4274599846495</v>
       </c>
       <c r="P8" t="n">
-        <v>348.2054349578984</v>
+        <v>348.2834831973957</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27283,7 +27337,7 @@
         <v>0.2785337001385454</v>
       </c>
       <c r="J9" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K9" t="n">
         <v>332</v>
@@ -27358,28 +27412,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1747525961813849</v>
+        <v>0.1735565723091703</v>
       </c>
       <c r="J10" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K10" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007964070724611694</v>
+        <v>0.00789681989617419</v>
       </c>
       <c r="M10" t="n">
-        <v>11.93470557643842</v>
+        <v>11.91241486982011</v>
       </c>
       <c r="N10" t="n">
-        <v>216.3991139556451</v>
+        <v>215.8828969816911</v>
       </c>
       <c r="O10" t="n">
-        <v>14.71051032274697</v>
+        <v>14.69295399100164</v>
       </c>
       <c r="P10" t="n">
-        <v>380.4195628574345</v>
+        <v>380.431124522994</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27436,28 +27490,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7284741264048643</v>
+        <v>0.7197681752015289</v>
       </c>
       <c r="J11" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1967964614947058</v>
+        <v>0.1926440517674508</v>
       </c>
       <c r="M11" t="n">
-        <v>8.419717562002001</v>
+        <v>8.446546990568111</v>
       </c>
       <c r="N11" t="n">
-        <v>125.8961531397062</v>
+        <v>126.5093962564126</v>
       </c>
       <c r="O11" t="n">
-        <v>11.22034550001497</v>
+        <v>11.2476395859937</v>
       </c>
       <c r="P11" t="n">
-        <v>327.7497856609955</v>
+        <v>327.8339372948062</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27514,28 +27568,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7451228119764653</v>
+        <v>0.7379977667745988</v>
       </c>
       <c r="J12" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K12" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2398256472046608</v>
+        <v>0.2361560875347657</v>
       </c>
       <c r="M12" t="n">
-        <v>7.815322117810389</v>
+        <v>7.83276095159766</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9166480989701</v>
+        <v>102.2723917649069</v>
       </c>
       <c r="O12" t="n">
-        <v>10.09537756099147</v>
+        <v>10.11298134898443</v>
       </c>
       <c r="P12" t="n">
-        <v>338.5714315580087</v>
+        <v>338.6404345691587</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27592,28 +27646,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6100464160412045</v>
+        <v>0.6058897982071059</v>
       </c>
       <c r="J13" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K13" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L13" t="n">
-        <v>0.167370573331845</v>
+        <v>0.1659032362832651</v>
       </c>
       <c r="M13" t="n">
-        <v>7.905031813080737</v>
+        <v>7.909645050356956</v>
       </c>
       <c r="N13" t="n">
-        <v>107.4615719832314</v>
+        <v>107.3974872812917</v>
       </c>
       <c r="O13" t="n">
-        <v>10.366367347496</v>
+        <v>10.36327589526071</v>
       </c>
       <c r="P13" t="n">
-        <v>344.7933230276211</v>
+        <v>344.8335240303523</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27651,7 +27705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N468"/>
+  <dimension ref="A1:N469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28896,7 +28950,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-34.9657307784306,173.64927434700724</t>
+          <t>-34.965730778430604,173.64927434700724</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -32791,7 +32845,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-34.96563686579894,173.64472095838624</t>
+          <t>-34.96563686579895,173.64472095838624</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -41257,7 +41311,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-34.96499247697004,173.64304107853425</t>
+          <t>-34.964992476970046,173.64304107853425</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -53609,7 +53663,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>-34.96483355685571,173.643147648937</t>
+          <t>-34.964833556855716,173.643147648937</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -58368,7 +58422,11 @@
           <t>-34.964950626812715,173.6430691429199</t>
         </is>
       </c>
-      <c r="E468" t="inlineStr"/>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-34.96547440493464,173.64379928383707</t>
+        </is>
+      </c>
       <c r="F468" t="inlineStr">
         <is>
           <t>-34.96591313927086,173.6446089556767</t>
@@ -58406,6 +58464,66 @@
         </is>
       </c>
       <c r="N468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-34.964913783782855,173.64309384953833</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-34.965344469012514,173.64386578530207</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-34.965658933467225,173.64471201206692</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-34.96593195396114,173.6456181907647</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-34.965819450701666,173.6465889603901</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>-34.96536772680363,173.64838111882523</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>-34.9658835096753,173.64926954010986</t>
+        </is>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>-34.96577293325773,173.65022616864434</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>-34.9653660535946,173.65103634862822</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N469"/>
+  <dimension ref="A1:N472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21496,6 +21496,148 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>360.4788888888889</v>
+      </c>
+      <c r="C470" t="n">
+        <v>355.9188888888889</v>
+      </c>
+      <c r="D470" t="n">
+        <v>355.0514285714286</v>
+      </c>
+      <c r="E470" t="n">
+        <v>360.6133333333333</v>
+      </c>
+      <c r="F470" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="G470" t="n">
+        <v>334.46</v>
+      </c>
+      <c r="H470" t="n">
+        <v>359.4333333333333</v>
+      </c>
+      <c r="I470" t="n">
+        <v>368.03</v>
+      </c>
+      <c r="J470" t="n">
+        <v>382.6233333333333</v>
+      </c>
+      <c r="K470" t="n">
+        <v>340.0063636363636</v>
+      </c>
+      <c r="L470" t="n">
+        <v>348.3366666666667</v>
+      </c>
+      <c r="M470" t="n">
+        <v>364.4</v>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>361.99</v>
+      </c>
+      <c r="C471" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="D471" t="n">
+        <v>353.7785714285715</v>
+      </c>
+      <c r="E471" t="n">
+        <v>342.96</v>
+      </c>
+      <c r="F471" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="G471" t="n">
+        <v>335.72</v>
+      </c>
+      <c r="H471" t="n">
+        <v>354.98</v>
+      </c>
+      <c r="I471" t="n">
+        <v>372.53</v>
+      </c>
+      <c r="J471" t="n">
+        <v>369.54</v>
+      </c>
+      <c r="K471" t="n">
+        <v>337.0781818181818</v>
+      </c>
+      <c r="L471" t="n">
+        <v>349.98</v>
+      </c>
+      <c r="M471" t="n">
+        <v>353.43</v>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>345.3433333333333</v>
+      </c>
+      <c r="C472" t="n">
+        <v>335.5533333333333</v>
+      </c>
+      <c r="D472" t="n">
+        <v>335.1685714285715</v>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="n">
+        <v>310.36</v>
+      </c>
+      <c r="G472" t="n">
+        <v>309.03</v>
+      </c>
+      <c r="H472" t="n">
+        <v>351.32</v>
+      </c>
+      <c r="I472" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="J472" t="n">
+        <v>377.99</v>
+      </c>
+      <c r="K472" t="n">
+        <v>320.5809090909091</v>
+      </c>
+      <c r="L472" t="n">
+        <v>334.88</v>
+      </c>
+      <c r="M472" t="n">
+        <v>361.47</v>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21507,7 +21649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B510"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26615,6 +26757,36 @@
       </c>
       <c r="B510" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -26788,28 +26960,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.40971435596113</v>
+        <v>0.396538973526536</v>
       </c>
       <c r="J2" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05262654698485603</v>
+        <v>0.0498569900371254</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34907770121605</v>
+        <v>10.34284952948368</v>
       </c>
       <c r="N2" t="n">
-        <v>172.6670269256795</v>
+        <v>172.5215864001749</v>
       </c>
       <c r="O2" t="n">
-        <v>13.14028260448304</v>
+        <v>13.13474729106635</v>
       </c>
       <c r="P2" t="n">
-        <v>355.2117866258585</v>
+        <v>355.34014089048</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26866,28 +27038,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4817011219934605</v>
+        <v>0.4696090969512507</v>
       </c>
       <c r="J3" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K3" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08307190705038769</v>
+        <v>0.07968172823055752</v>
       </c>
       <c r="M3" t="n">
-        <v>9.680753273222223</v>
+        <v>9.67165282495267</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5622600996541</v>
+        <v>147.8247748918176</v>
       </c>
       <c r="O3" t="n">
-        <v>12.14752073880321</v>
+        <v>12.15832122012812</v>
       </c>
       <c r="P3" t="n">
-        <v>346.4880843421172</v>
+        <v>346.605924771181</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26944,28 +27116,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4699113854716867</v>
+        <v>0.4590097436327075</v>
       </c>
       <c r="J4" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K4" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0747111214131625</v>
+        <v>0.07203593005621245</v>
       </c>
       <c r="M4" t="n">
-        <v>9.966111503786522</v>
+        <v>9.952556149734201</v>
       </c>
       <c r="N4" t="n">
-        <v>157.5796594879441</v>
+        <v>157.5226240539679</v>
       </c>
       <c r="O4" t="n">
-        <v>12.55307370678369</v>
+        <v>12.55080172952979</v>
       </c>
       <c r="P4" t="n">
-        <v>344.0988887307909</v>
+        <v>344.2051286509625</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27022,28 +27194,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5131129614687169</v>
+        <v>0.511939288628855</v>
       </c>
       <c r="J5" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K5" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07117410413202452</v>
+        <v>0.07137067950905263</v>
       </c>
       <c r="M5" t="n">
-        <v>11.16022299177224</v>
+        <v>11.14892733275756</v>
       </c>
       <c r="N5" t="n">
-        <v>198.443490841448</v>
+        <v>197.8768627869504</v>
       </c>
       <c r="O5" t="n">
-        <v>14.08699722586215</v>
+        <v>14.06687110863501</v>
       </c>
       <c r="P5" t="n">
-        <v>339.8368051498558</v>
+        <v>339.8483012587584</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27100,28 +27272,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.442113415005826</v>
+        <v>0.4304890940665577</v>
       </c>
       <c r="J6" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05782705196165394</v>
+        <v>0.05529793892943335</v>
       </c>
       <c r="M6" t="n">
-        <v>10.47082058617029</v>
+        <v>10.48112494571001</v>
       </c>
       <c r="N6" t="n">
-        <v>187.1508314038074</v>
+        <v>187.3331515812537</v>
       </c>
       <c r="O6" t="n">
-        <v>13.68030816187294</v>
+        <v>13.68697013883108</v>
       </c>
       <c r="P6" t="n">
-        <v>323.4067716734388</v>
+        <v>323.5191718539567</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27178,28 +27350,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2941570326861895</v>
+        <v>0.2784714074708741</v>
       </c>
       <c r="J7" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K7" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01815902066544217</v>
+        <v>0.01641166646433234</v>
       </c>
       <c r="M7" t="n">
-        <v>12.73212305284116</v>
+        <v>12.72809218949177</v>
       </c>
       <c r="N7" t="n">
-        <v>277.1334668625811</v>
+        <v>277.2381401734587</v>
       </c>
       <c r="O7" t="n">
-        <v>16.64732611750551</v>
+        <v>16.65046966825437</v>
       </c>
       <c r="P7" t="n">
-        <v>330.7615715766653</v>
+        <v>330.911938793021</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27256,28 +27428,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2745760572525372</v>
+        <v>0.2743740244276771</v>
       </c>
       <c r="J8" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03969064688871926</v>
+        <v>0.04015879349947904</v>
       </c>
       <c r="M8" t="n">
-        <v>7.799235668910996</v>
+        <v>7.76248109105089</v>
       </c>
       <c r="N8" t="n">
-        <v>108.7319217314665</v>
+        <v>108.0066172489082</v>
       </c>
       <c r="O8" t="n">
-        <v>10.4274599846495</v>
+        <v>10.39262321307321</v>
       </c>
       <c r="P8" t="n">
-        <v>348.2834831973957</v>
+        <v>348.2854539003732</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27334,28 +27506,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2785337001385454</v>
+        <v>0.2667765326351553</v>
       </c>
       <c r="J9" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K9" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0301847639655678</v>
+        <v>0.02813927943386429</v>
       </c>
       <c r="M9" t="n">
-        <v>9.257609582732863</v>
+        <v>9.240283017629304</v>
       </c>
       <c r="N9" t="n">
-        <v>144.9648175350073</v>
+        <v>144.3614874833153</v>
       </c>
       <c r="O9" t="n">
-        <v>12.04013361782199</v>
+        <v>12.01505253768436</v>
       </c>
       <c r="P9" t="n">
-        <v>366.4316459552437</v>
+        <v>366.5439374005096</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27412,28 +27584,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1735565723091703</v>
+        <v>0.1621066029835771</v>
       </c>
       <c r="J10" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K10" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00789681989617419</v>
+        <v>0.006980814598271268</v>
       </c>
       <c r="M10" t="n">
-        <v>11.91241486982011</v>
+        <v>11.89193901726605</v>
       </c>
       <c r="N10" t="n">
-        <v>215.8828969816911</v>
+        <v>214.9996133210123</v>
       </c>
       <c r="O10" t="n">
-        <v>14.69295399100164</v>
+        <v>14.66286511296521</v>
       </c>
       <c r="P10" t="n">
-        <v>380.431124522994</v>
+        <v>380.5419499584468</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27490,28 +27662,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7197681752015289</v>
+        <v>0.7015877577048744</v>
       </c>
       <c r="J11" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K11" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1926440517674508</v>
+        <v>0.1847272718881185</v>
       </c>
       <c r="M11" t="n">
-        <v>8.446546990568111</v>
+        <v>8.486383106041002</v>
       </c>
       <c r="N11" t="n">
-        <v>126.5093962564126</v>
+        <v>127.4802130765116</v>
       </c>
       <c r="O11" t="n">
-        <v>11.2476395859937</v>
+        <v>11.29071357694063</v>
       </c>
       <c r="P11" t="n">
-        <v>327.8339372948062</v>
+        <v>328.009965157215</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27568,28 +27740,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7379977667745988</v>
+        <v>0.7203287095542386</v>
       </c>
       <c r="J12" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K12" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2361560875347657</v>
+        <v>0.2273414382062205</v>
       </c>
       <c r="M12" t="n">
-        <v>7.83276095159766</v>
+        <v>7.865641009316933</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2723917649069</v>
+        <v>103.1207883015287</v>
       </c>
       <c r="O12" t="n">
-        <v>10.11298134898443</v>
+        <v>10.15484063397987</v>
       </c>
       <c r="P12" t="n">
-        <v>338.6404345691587</v>
+        <v>338.8118151816107</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27646,28 +27818,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6058897982071059</v>
+        <v>0.604873692243284</v>
       </c>
       <c r="J13" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K13" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1659032362832651</v>
+        <v>0.1672694844810229</v>
       </c>
       <c r="M13" t="n">
-        <v>7.909645050356956</v>
+        <v>7.881167743848756</v>
       </c>
       <c r="N13" t="n">
-        <v>107.3974872812917</v>
+        <v>106.7701606286932</v>
       </c>
       <c r="O13" t="n">
-        <v>10.36327589526071</v>
+        <v>10.33296475503005</v>
       </c>
       <c r="P13" t="n">
-        <v>344.8335240303523</v>
+        <v>344.8433747385891</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27705,7 +27877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N469"/>
+  <dimension ref="A1:N472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58529,6 +58701,218 @@
         </is>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-34.96402280415901,173.6416413644065</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.96443445501028,173.64238812163165</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.964818433953226,173.6431577901952</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.965113431716844,173.64398403009372</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.9655420945646,173.64475937895978</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.965818229403844,173.64564276045866</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-34.965620871542015,173.6465868559114</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>-34.965513215847565,173.64748224829285</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>-34.965365893340426,173.6483811099505</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>-34.96576599888859,173.64927323851796</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>-34.9657170283953,173.65021182417428</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>-34.96526155818241,173.6509745244026</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.964011068262444,173.6416497744802</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.96441805922853,173.6423998709606</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.964828482056305,173.64315105204417</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.96526012559415,173.6439089523113</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.965618305007645,173.644728483</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.96580704338147,173.64564517714632</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-34.96566102619024,173.64658728145614</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>-34.96547266430595,173.64748050350337</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>-34.965483866176136,173.648381680992</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>-34.96579239374542,173.64927240779534</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>-34.96570253018491,173.65020810412295</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>-34.965350488725484,173.65102713973428</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.96414035293808,173.64155712749292</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.96459262247008,173.64227477747215</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.96497539182172,173.643052535704</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.96577945029464,173.6446631539841</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.966043991731105,173.6455939854284</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-34.96569402754015,173.64658763119328</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>-34.96559134515023,173.64748560992632</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>-34.96540767225575,173.6483813121787</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>-34.96594110143243,173.64926772752597</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>-34.96583574902873,173.65024228638953</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>-34.965285310827674,173.6509885775292</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21638,6 +21638,178 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>351.7944444444445</v>
+      </c>
+      <c r="C473" t="n">
+        <v>344.5944444444444</v>
+      </c>
+      <c r="D473" t="n">
+        <v>339.6571428571428</v>
+      </c>
+      <c r="E473" t="n">
+        <v>374.7866666666667</v>
+      </c>
+      <c r="F473" t="n">
+        <v>316.39</v>
+      </c>
+      <c r="G473" t="n">
+        <v>321.74</v>
+      </c>
+      <c r="H473" t="n">
+        <v>359.1766666666667</v>
+      </c>
+      <c r="I473" t="n">
+        <v>360.08</v>
+      </c>
+      <c r="J473" t="n">
+        <v>381.4166666666667</v>
+      </c>
+      <c r="K473" t="n">
+        <v>328.99</v>
+      </c>
+      <c r="L473" t="n">
+        <v>342.0233333333333</v>
+      </c>
+      <c r="M473" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>357.8388888888889</v>
+      </c>
+      <c r="C474" t="n">
+        <v>349.3588888888889</v>
+      </c>
+      <c r="D474" t="n">
+        <v>351.4928571428572</v>
+      </c>
+      <c r="E474" t="n">
+        <v>337.7333333333333</v>
+      </c>
+      <c r="F474" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="G474" t="n">
+        <v>330.46</v>
+      </c>
+      <c r="H474" t="n">
+        <v>355.2733333333333</v>
+      </c>
+      <c r="I474" t="n">
+        <v>376.73</v>
+      </c>
+      <c r="J474" t="n">
+        <v>366.7333333333333</v>
+      </c>
+      <c r="K474" t="n">
+        <v>339.3018181818182</v>
+      </c>
+      <c r="L474" t="n">
+        <v>349.1866666666667</v>
+      </c>
+      <c r="M474" t="n">
+        <v>356.3</v>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>353.3977777777778</v>
+      </c>
+      <c r="C475" t="n">
+        <v>349.4177777777778</v>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>332.5633333333333</v>
+      </c>
+      <c r="M475" t="n">
+        <v>341.39</v>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>350.6066666666667</v>
+      </c>
+      <c r="C476" t="n">
+        <v>344.8366666666667</v>
+      </c>
+      <c r="D476" t="n">
+        <v>339.77</v>
+      </c>
+      <c r="E476" t="n">
+        <v>350.99</v>
+      </c>
+      <c r="F476" t="n">
+        <v>328.43</v>
+      </c>
+      <c r="G476" t="n">
+        <v>318.44</v>
+      </c>
+      <c r="H476" t="n">
+        <v>344.05</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>325.9436363636364</v>
+      </c>
+      <c r="L476" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="M476" t="n">
+        <v>358.03</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21649,7 +21821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26787,6 +26959,46 @@
       </c>
       <c r="B513" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -26960,28 +27172,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.396538973526536</v>
+        <v>0.3753055864376588</v>
       </c>
       <c r="J2" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K2" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0498569900371254</v>
+        <v>0.04535942952625194</v>
       </c>
       <c r="M2" t="n">
-        <v>10.34284952948368</v>
+        <v>10.354210364344</v>
       </c>
       <c r="N2" t="n">
-        <v>172.5215864001749</v>
+        <v>172.3366603909213</v>
       </c>
       <c r="O2" t="n">
-        <v>13.13474729106635</v>
+        <v>13.12770583121519</v>
       </c>
       <c r="P2" t="n">
-        <v>355.34014089048</v>
+        <v>355.5476019318041</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27038,28 +27250,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4696090969512507</v>
+        <v>0.4493455191869105</v>
       </c>
       <c r="J3" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07968172823055752</v>
+        <v>0.07412435860256195</v>
       </c>
       <c r="M3" t="n">
-        <v>9.67165282495267</v>
+        <v>9.681186582635588</v>
       </c>
       <c r="N3" t="n">
-        <v>147.8247748918176</v>
+        <v>147.7461180594588</v>
       </c>
       <c r="O3" t="n">
-        <v>12.15832122012812</v>
+        <v>12.15508609839761</v>
       </c>
       <c r="P3" t="n">
-        <v>346.605924771181</v>
+        <v>346.8039067540879</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27116,28 +27328,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4590097436327075</v>
+        <v>0.4428296899745692</v>
       </c>
       <c r="J4" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07203593005621245</v>
+        <v>0.06775357895304324</v>
       </c>
       <c r="M4" t="n">
-        <v>9.952556149734201</v>
+        <v>9.967196352397764</v>
       </c>
       <c r="N4" t="n">
-        <v>157.5226240539679</v>
+        <v>157.704133716954</v>
       </c>
       <c r="O4" t="n">
-        <v>12.55080172952979</v>
+        <v>12.55803064644111</v>
       </c>
       <c r="P4" t="n">
-        <v>344.2051286509625</v>
+        <v>344.3631832894801</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27194,28 +27406,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.511939288628855</v>
+        <v>0.5136963541361903</v>
       </c>
       <c r="J5" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07137067950905263</v>
+        <v>0.07219496530926073</v>
       </c>
       <c r="M5" t="n">
-        <v>11.14892733275756</v>
+        <v>11.1629668215435</v>
       </c>
       <c r="N5" t="n">
-        <v>197.8768627869504</v>
+        <v>198.1553677111828</v>
       </c>
       <c r="O5" t="n">
-        <v>14.06687110863501</v>
+        <v>14.07676694810221</v>
       </c>
       <c r="P5" t="n">
-        <v>339.8483012587584</v>
+        <v>339.8312242667292</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27272,28 +27484,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4304890940665577</v>
+        <v>0.4153853012142497</v>
       </c>
       <c r="J6" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K6" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05529793892943335</v>
+        <v>0.05205767960775287</v>
       </c>
       <c r="M6" t="n">
-        <v>10.48112494571001</v>
+        <v>10.4965179864855</v>
       </c>
       <c r="N6" t="n">
-        <v>187.3331515812537</v>
+        <v>187.154702261333</v>
       </c>
       <c r="O6" t="n">
-        <v>13.68697013883108</v>
+        <v>13.6804496366652</v>
       </c>
       <c r="P6" t="n">
-        <v>323.5191718539567</v>
+        <v>323.6653947281403</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27350,28 +27562,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2784714074708741</v>
+        <v>0.2596715904568753</v>
       </c>
       <c r="J7" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K7" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01641166646433234</v>
+        <v>0.01441351064135954</v>
       </c>
       <c r="M7" t="n">
-        <v>12.72809218949177</v>
+        <v>12.74286202401872</v>
       </c>
       <c r="N7" t="n">
-        <v>277.2381401734587</v>
+        <v>276.9282679680312</v>
       </c>
       <c r="O7" t="n">
-        <v>16.65046966825437</v>
+        <v>16.64116185751557</v>
       </c>
       <c r="P7" t="n">
-        <v>330.911938793021</v>
+        <v>331.0926447964124</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27428,28 +27640,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2743740244276771</v>
+        <v>0.2709884638551496</v>
       </c>
       <c r="J8" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K8" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04015879349947904</v>
+        <v>0.03962556209908052</v>
       </c>
       <c r="M8" t="n">
-        <v>7.76248109105089</v>
+        <v>7.743196967362985</v>
       </c>
       <c r="N8" t="n">
-        <v>108.0066172489082</v>
+        <v>107.5621540671947</v>
       </c>
       <c r="O8" t="n">
-        <v>10.39262321307321</v>
+        <v>10.37121757881854</v>
       </c>
       <c r="P8" t="n">
-        <v>348.2854539003732</v>
+        <v>348.3180974222738</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27506,28 +27718,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2667765326351553</v>
+        <v>0.2612168253827677</v>
       </c>
       <c r="J9" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K9" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02813927943386429</v>
+        <v>0.0272299958893899</v>
       </c>
       <c r="M9" t="n">
-        <v>9.240283017629304</v>
+        <v>9.236412957344895</v>
       </c>
       <c r="N9" t="n">
-        <v>144.3614874833153</v>
+        <v>144.0646598406485</v>
       </c>
       <c r="O9" t="n">
-        <v>12.01505253768436</v>
+        <v>12.00269385765748</v>
       </c>
       <c r="P9" t="n">
-        <v>366.5439374005096</v>
+        <v>366.5970600928782</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27584,28 +27796,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1621066029835771</v>
+        <v>0.1522980874186279</v>
       </c>
       <c r="J10" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K10" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006980814598271268</v>
+        <v>0.006205972539850668</v>
       </c>
       <c r="M10" t="n">
-        <v>11.89193901726605</v>
+        <v>11.89129815728687</v>
       </c>
       <c r="N10" t="n">
-        <v>214.9996133210123</v>
+        <v>214.7619879533884</v>
       </c>
       <c r="O10" t="n">
-        <v>14.66286511296521</v>
+        <v>14.65475990773607</v>
       </c>
       <c r="P10" t="n">
-        <v>380.5419499584468</v>
+        <v>380.6370583717202</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27662,28 +27874,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7015877577048744</v>
+        <v>0.6825501061227649</v>
       </c>
       <c r="J11" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K11" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1847272718881185</v>
+        <v>0.1766226377726907</v>
       </c>
       <c r="M11" t="n">
-        <v>8.486383106041002</v>
+        <v>8.532787103715432</v>
       </c>
       <c r="N11" t="n">
-        <v>127.4802130765116</v>
+        <v>128.3281530150155</v>
       </c>
       <c r="O11" t="n">
-        <v>11.29071357694063</v>
+        <v>11.32820166729987</v>
       </c>
       <c r="P11" t="n">
-        <v>328.009965157215</v>
+        <v>328.1948298463731</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27740,28 +27952,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7203287095542386</v>
+        <v>0.6964540342319332</v>
       </c>
       <c r="J12" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K12" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2273414382062205</v>
+        <v>0.215196555409538</v>
       </c>
       <c r="M12" t="n">
-        <v>7.865641009316933</v>
+        <v>7.914011651905433</v>
       </c>
       <c r="N12" t="n">
-        <v>103.1207883015287</v>
+        <v>104.405550611311</v>
       </c>
       <c r="O12" t="n">
-        <v>10.15484063397987</v>
+        <v>10.2179034352117</v>
       </c>
       <c r="P12" t="n">
-        <v>338.8118151816107</v>
+        <v>339.0440981643042</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27818,28 +28030,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.604873692243284</v>
+        <v>0.5952464933971406</v>
       </c>
       <c r="J13" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K13" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1672694844810229</v>
+        <v>0.1642085674521292</v>
       </c>
       <c r="M13" t="n">
-        <v>7.881167743848756</v>
+        <v>7.881456814766324</v>
       </c>
       <c r="N13" t="n">
-        <v>106.7701606286932</v>
+        <v>106.7163461177988</v>
       </c>
       <c r="O13" t="n">
-        <v>10.33296475503005</v>
+        <v>10.3303604059974</v>
       </c>
       <c r="P13" t="n">
-        <v>344.8433747385891</v>
+        <v>344.9370573104568</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27877,7 +28089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:N476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58913,6 +59125,254 @@
         </is>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.964090251035685,173.6415930311721</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.9645224054161,173.6423250956785</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.96493995846116,173.64307629702716</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.96499565555625,173.64404430760845</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.965727873542754,173.64468406345762</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.96593115495958,173.64561836338572</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-34.96562318584436,173.64658688043755</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>-34.965584856903675,173.64748533075922</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>-34.96537677389251,173.64838116261708</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>-34.96586530123974,173.6492701131831</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>-34.965772727400804,173.65022611582407</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>-34.96525993684137,173.65097356514514</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-34.964043307459264,173.64162667150734</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.96448540273754,173.64235161210837</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.96484652578707,173.64313895210563</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.96530355760923,173.6438867237933</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.965665776154914,173.64470923801346</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.96585374058557,173.64563508843008</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-34.9656583812733,173.64658725342622</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>-34.96543481620016,173.64747887503506</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>-34.965509173979065,173.6483818034937</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>-34.96577234971568,173.64927303863908</t>
+        </is>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>-34.96570952932098,173.65020990000963</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>-34.9653272224874,173.65101337436295</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-34.96407779890776,173.6416019545221</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.964484945381635,173.64235193985328</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr"/>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-34.96585618768016,173.6502475306988</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-34.965448093412704,173.6510848872315</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-34.96409947579253,173.64158642059442</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-34.96452052421664,173.64232644376253</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-34.96493906755229,173.6430768944631</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-34.965193398721134,173.64394310309515</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-34.96562489109493,173.64472581297613</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-34.965960451682925,173.64561203394587</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-34.96575957940132,173.64658832589123</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-34.96589276139614,173.6492692489308</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-34.96569441353967,173.65020602149846</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-34.965313197890104,173.65100507677357</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N476"/>
+  <dimension ref="A1:N480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21810,6 +21810,176 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>358.5511111111111</v>
+      </c>
+      <c r="C477" t="n">
+        <v>348.5311111111111</v>
+      </c>
+      <c r="D477" t="n">
+        <v>343.6442857142857</v>
+      </c>
+      <c r="E477" t="n">
+        <v>335.6766666666667</v>
+      </c>
+      <c r="F477" t="n">
+        <v>325.88</v>
+      </c>
+      <c r="G477" t="n">
+        <v>325.55</v>
+      </c>
+      <c r="H477" t="n">
+        <v>345.7066666666667</v>
+      </c>
+      <c r="I477" t="n">
+        <v>367.32</v>
+      </c>
+      <c r="J477" t="n">
+        <v>394.8366666666667</v>
+      </c>
+      <c r="K477" t="n">
+        <v>331.72</v>
+      </c>
+      <c r="L477" t="n">
+        <v>351.7833333333333</v>
+      </c>
+      <c r="M477" t="n">
+        <v>353.02</v>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>348.0988888888889</v>
+      </c>
+      <c r="C478" t="n">
+        <v>342.8688888888889</v>
+      </c>
+      <c r="D478" t="n">
+        <v>329.46</v>
+      </c>
+      <c r="E478" t="n">
+        <v>321.3333333333333</v>
+      </c>
+      <c r="F478" t="n">
+        <v>321.67</v>
+      </c>
+      <c r="G478" t="n">
+        <v>317.63</v>
+      </c>
+      <c r="H478" t="n">
+        <v>345.9933333333333</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>385.6133333333333</v>
+      </c>
+      <c r="K478" t="n">
+        <v>325.5945454545454</v>
+      </c>
+      <c r="L478" t="n">
+        <v>345.3466666666667</v>
+      </c>
+      <c r="M478" t="n">
+        <v>350.85</v>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>348.2477777777778</v>
+      </c>
+      <c r="C479" t="n">
+        <v>347.1277777777778</v>
+      </c>
+      <c r="D479" t="n">
+        <v>335.8185714285714</v>
+      </c>
+      <c r="E479" t="n">
+        <v>331.1766666666667</v>
+      </c>
+      <c r="F479" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="G479" t="n">
+        <v>323</v>
+      </c>
+      <c r="H479" t="n">
+        <v>351.2366666666667</v>
+      </c>
+      <c r="I479" t="n">
+        <v>369.28</v>
+      </c>
+      <c r="J479" t="n">
+        <v>388.1266666666667</v>
+      </c>
+      <c r="K479" t="n">
+        <v>335.3572727272727</v>
+      </c>
+      <c r="L479" t="n">
+        <v>345.8333333333333</v>
+      </c>
+      <c r="M479" t="n">
+        <v>351.9</v>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>343.6344444444445</v>
+      </c>
+      <c r="C480" t="n">
+        <v>326.3544444444445</v>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21821,7 +21991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26999,6 +27169,46 @@
       </c>
       <c r="B517" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -27172,28 +27382,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3753055864376588</v>
+        <v>0.3485825941113206</v>
       </c>
       <c r="J2" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04535942952625194</v>
+        <v>0.03953507471708484</v>
       </c>
       <c r="M2" t="n">
-        <v>10.354210364344</v>
+        <v>10.3934691965469</v>
       </c>
       <c r="N2" t="n">
-        <v>172.3366603909213</v>
+        <v>173.2346633427743</v>
       </c>
       <c r="O2" t="n">
-        <v>13.12770583121519</v>
+        <v>13.16186397676159</v>
       </c>
       <c r="P2" t="n">
-        <v>355.5476019318041</v>
+        <v>355.8098918757548</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27250,28 +27460,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4493455191869105</v>
+        <v>0.4200760492247915</v>
       </c>
       <c r="J3" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07412435860256195</v>
+        <v>0.06509945491907121</v>
       </c>
       <c r="M3" t="n">
-        <v>9.681186582635588</v>
+        <v>9.741971840438433</v>
       </c>
       <c r="N3" t="n">
-        <v>147.7461180594588</v>
+        <v>149.8109950887371</v>
       </c>
       <c r="O3" t="n">
-        <v>12.15508609839761</v>
+        <v>12.2397301885596</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8039067540879</v>
+        <v>347.0912969614809</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27328,28 +27538,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4428296899745692</v>
+        <v>0.4177557611226571</v>
       </c>
       <c r="J4" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06775357895304324</v>
+        <v>0.06051171248174192</v>
       </c>
       <c r="M4" t="n">
-        <v>9.967196352397764</v>
+        <v>10.02949124889038</v>
       </c>
       <c r="N4" t="n">
-        <v>157.704133716954</v>
+        <v>159.4674529545825</v>
       </c>
       <c r="O4" t="n">
-        <v>12.55803064644111</v>
+        <v>12.62804232470665</v>
       </c>
       <c r="P4" t="n">
-        <v>344.3631832894801</v>
+        <v>344.6092040069088</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27406,28 +27616,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5136963541361903</v>
+        <v>0.4831626168418923</v>
       </c>
       <c r="J5" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K5" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07219496530926073</v>
+        <v>0.06397826260186923</v>
       </c>
       <c r="M5" t="n">
-        <v>11.1629668215435</v>
+        <v>11.24650607347287</v>
       </c>
       <c r="N5" t="n">
-        <v>198.1553677111828</v>
+        <v>200.9285859530843</v>
       </c>
       <c r="O5" t="n">
-        <v>14.07676694810221</v>
+        <v>14.17492807576406</v>
       </c>
       <c r="P5" t="n">
-        <v>339.8312242667292</v>
+        <v>340.1317813379595</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27484,28 +27694,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4153853012142497</v>
+        <v>0.402204880153063</v>
       </c>
       <c r="J6" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05205767960775287</v>
+        <v>0.04940814485645062</v>
       </c>
       <c r="M6" t="n">
-        <v>10.4965179864855</v>
+        <v>10.50026327148347</v>
       </c>
       <c r="N6" t="n">
-        <v>187.154702261333</v>
+        <v>186.6131711611825</v>
       </c>
       <c r="O6" t="n">
-        <v>13.6804496366652</v>
+        <v>13.66064314595702</v>
       </c>
       <c r="P6" t="n">
-        <v>323.6653947281403</v>
+        <v>323.7937038896818</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27562,28 +27772,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2596715904568753</v>
+        <v>0.2395922441726255</v>
       </c>
       <c r="J7" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01441351064135954</v>
+        <v>0.01238556188476503</v>
       </c>
       <c r="M7" t="n">
-        <v>12.74286202401872</v>
+        <v>12.76436893838651</v>
       </c>
       <c r="N7" t="n">
-        <v>276.9282679680312</v>
+        <v>276.7725762644069</v>
       </c>
       <c r="O7" t="n">
-        <v>16.64116185751557</v>
+        <v>16.63648329017905</v>
       </c>
       <c r="P7" t="n">
-        <v>331.0926447964124</v>
+        <v>331.2865083079232</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27640,28 +27850,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2709884638551496</v>
+        <v>0.2610313640770316</v>
       </c>
       <c r="J8" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K8" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03962556209908052</v>
+        <v>0.03721391353817927</v>
       </c>
       <c r="M8" t="n">
-        <v>7.743196967362985</v>
+        <v>7.743692597400615</v>
       </c>
       <c r="N8" t="n">
-        <v>107.5621540671947</v>
+        <v>107.250039258261</v>
       </c>
       <c r="O8" t="n">
-        <v>10.37121757881854</v>
+        <v>10.35615948401052</v>
       </c>
       <c r="P8" t="n">
-        <v>348.3180974222738</v>
+        <v>348.414081546206</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27718,28 +27928,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2612168253827677</v>
+        <v>0.2556478193252341</v>
       </c>
       <c r="J9" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0272299958893899</v>
+        <v>0.02639492647365405</v>
       </c>
       <c r="M9" t="n">
-        <v>9.236412957344895</v>
+        <v>9.21299929543107</v>
       </c>
       <c r="N9" t="n">
-        <v>144.0646598406485</v>
+        <v>143.3708713637307</v>
       </c>
       <c r="O9" t="n">
-        <v>12.00269385765748</v>
+        <v>11.97375761253462</v>
       </c>
       <c r="P9" t="n">
-        <v>366.5970600928782</v>
+        <v>366.6506093022626</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27796,28 +28006,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1522980874186279</v>
+        <v>0.1589977864955687</v>
       </c>
       <c r="J10" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006205972539850668</v>
+        <v>0.006853880093532938</v>
       </c>
       <c r="M10" t="n">
-        <v>11.89129815728687</v>
+        <v>11.83643030625952</v>
       </c>
       <c r="N10" t="n">
-        <v>214.7619879533884</v>
+        <v>213.4904909361658</v>
       </c>
       <c r="O10" t="n">
-        <v>14.65475990773607</v>
+        <v>14.61131379911354</v>
       </c>
       <c r="P10" t="n">
-        <v>380.6370583717202</v>
+        <v>380.5717754388201</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27874,28 +28084,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6825501061227649</v>
+        <v>0.6634184854157382</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K11" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1766226377726907</v>
+        <v>0.1686106504401731</v>
       </c>
       <c r="M11" t="n">
-        <v>8.532787103715432</v>
+        <v>8.580486332675518</v>
       </c>
       <c r="N11" t="n">
-        <v>128.3281530150155</v>
+        <v>129.1040009644484</v>
       </c>
       <c r="O11" t="n">
-        <v>11.32820166729987</v>
+        <v>11.36239415635844</v>
       </c>
       <c r="P11" t="n">
-        <v>328.1948298463731</v>
+        <v>328.381399561143</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27952,28 +28162,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6964540342319332</v>
+        <v>0.6842959783897199</v>
       </c>
       <c r="J12" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K12" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.215196555409538</v>
+        <v>0.2105110206187801</v>
       </c>
       <c r="M12" t="n">
-        <v>7.914011651905433</v>
+        <v>7.921426083526212</v>
       </c>
       <c r="N12" t="n">
-        <v>104.405550611311</v>
+        <v>104.3558032203446</v>
       </c>
       <c r="O12" t="n">
-        <v>10.2179034352117</v>
+        <v>10.21546882038923</v>
       </c>
       <c r="P12" t="n">
-        <v>339.0440981643042</v>
+        <v>339.1629049423595</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28030,28 +28240,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5952464933971406</v>
+        <v>0.5841799894319061</v>
       </c>
       <c r="J13" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K13" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1642085674521292</v>
+        <v>0.1603644614017281</v>
       </c>
       <c r="M13" t="n">
-        <v>7.881456814766324</v>
+        <v>7.890079134832988</v>
       </c>
       <c r="N13" t="n">
-        <v>106.7163461177988</v>
+        <v>106.4631376023437</v>
       </c>
       <c r="O13" t="n">
-        <v>10.3303604059974</v>
+        <v>10.318097576702</v>
       </c>
       <c r="P13" t="n">
-        <v>344.9370573104568</v>
+        <v>345.0450441772128</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28089,7 +28299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N476"/>
+  <dimension ref="A1:N480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59373,6 +59583,250 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-34.96403777605561,173.6416306353752</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.96449183160817,173.64234700512776</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.9649084834384,173.64309740390158</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-34.96532064788443,173.64387797697853</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-34.9656467021628,173.64471697068635</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-34.96589733056028,173.64562567100631</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-34.96574464163201,173.6465881675853</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-34.965519613979666,173.64748252358206</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-34.96525576532051,173.6483805768854</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-34.96584069280941,173.64927088768277</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-34.96568662038388,173.65020402187756</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-34.96535381247365,173.65102910621655</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-34.96411895219567,173.64157246355134</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.96453580680455,173.64231549212428</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.965020456012596,173.64302231599063</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-34.96543983660935,173.6438169759972</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-34.965682711806686,173.6447023722292</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-34.965967642696775,173.64561048035543</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-34.965742056826855,173.6465881401923</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-34.96533893241434,173.64838097944812</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-34.965895908128466,173.64926914989385</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-34.96574340749165,173.6502185927092</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-34.96537140401818,173.6510395141863</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-34.96411779586517,173.641573292193</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-34.96450273048512,173.64233919490255</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-34.96497026063834,173.64305597663525</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-34.96535804151516,173.6438588388786</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-34.965658676866425,173.64471211609393</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-34.96591996893783,173.64562078007978</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-34.965694778937014,173.64658763915637</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-34.96550195153049,173.64748176362892</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-34.96531626960681,173.64838086975067</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-34.965807906152676,173.64927191957472</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-34.96573911390409,173.65021749102985</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr">
+        <is>
+          <t>-34.96536289198063,173.65103447807135</t>
+        </is>
+      </c>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-34.964153624849146,173.64154761665912</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.96466406487107,173.6422235810678</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N480"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21980,6 +21980,50 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>347.4355555555555</v>
+      </c>
+      <c r="C481" t="n">
+        <v>340.9955555555555</v>
+      </c>
+      <c r="D481" t="n">
+        <v>338.3214285714286</v>
+      </c>
+      <c r="E481" t="n">
+        <v>330.9433333333333</v>
+      </c>
+      <c r="F481" t="n">
+        <v>305.76</v>
+      </c>
+      <c r="G481" t="n">
+        <v>315.71</v>
+      </c>
+      <c r="H481" t="n">
+        <v>349.3433333333333</v>
+      </c>
+      <c r="I481" t="n">
+        <v>367.48</v>
+      </c>
+      <c r="J481" t="n">
+        <v>352.1033333333333</v>
+      </c>
+      <c r="K481" t="n">
+        <v>328.9236363636364</v>
+      </c>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21991,7 +22035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27209,6 +27253,16 @@
       </c>
       <c r="B521" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -27382,28 +27436,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3485825941113206</v>
+        <v>0.3410982998409572</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03953507471708484</v>
+        <v>0.03794220849252117</v>
       </c>
       <c r="M2" t="n">
-        <v>10.3934691965469</v>
+        <v>10.40691986362898</v>
       </c>
       <c r="N2" t="n">
-        <v>173.2346633427743</v>
+        <v>173.5366983935179</v>
       </c>
       <c r="O2" t="n">
-        <v>13.16186397676159</v>
+        <v>13.17333285063115</v>
       </c>
       <c r="P2" t="n">
-        <v>355.8098918757548</v>
+        <v>355.883814055713</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27460,28 +27514,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4200760492247915</v>
+        <v>0.4128095404177491</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K3" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06509945491907121</v>
+        <v>0.06301354850828855</v>
       </c>
       <c r="M3" t="n">
-        <v>9.741971840438433</v>
+        <v>9.757730312929102</v>
       </c>
       <c r="N3" t="n">
-        <v>149.8109950887371</v>
+        <v>150.13784943741</v>
       </c>
       <c r="O3" t="n">
-        <v>12.2397301885596</v>
+        <v>12.25307510127192</v>
       </c>
       <c r="P3" t="n">
-        <v>347.0912969614809</v>
+        <v>347.1630977813433</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27538,28 +27592,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4177557611226571</v>
+        <v>0.4103664882800131</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K4" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06051171248174192</v>
+        <v>0.05853484615494498</v>
       </c>
       <c r="M4" t="n">
-        <v>10.02949124889038</v>
+        <v>10.04508883222547</v>
       </c>
       <c r="N4" t="n">
-        <v>159.4674529545825</v>
+        <v>159.7821829465689</v>
       </c>
       <c r="O4" t="n">
-        <v>12.62804232470665</v>
+        <v>12.64049773333981</v>
       </c>
       <c r="P4" t="n">
-        <v>344.6092040069088</v>
+        <v>344.6822059714144</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27616,28 +27670,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4831626168418923</v>
+        <v>0.4737773270591612</v>
       </c>
       <c r="J5" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K5" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06397826260186923</v>
+        <v>0.06161866747719846</v>
       </c>
       <c r="M5" t="n">
-        <v>11.24650607347287</v>
+        <v>11.26983787641806</v>
       </c>
       <c r="N5" t="n">
-        <v>200.9285859530843</v>
+        <v>201.5681048749444</v>
       </c>
       <c r="O5" t="n">
-        <v>14.17492807576406</v>
+        <v>14.19746825581746</v>
       </c>
       <c r="P5" t="n">
-        <v>340.1317813379595</v>
+        <v>340.2248105424297</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27694,28 +27748,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.402204880153063</v>
+        <v>0.3901516690506496</v>
       </c>
       <c r="J6" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K6" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04940814485645062</v>
+        <v>0.04637975648982529</v>
       </c>
       <c r="M6" t="n">
-        <v>10.50026327148347</v>
+        <v>10.54626949380034</v>
       </c>
       <c r="N6" t="n">
-        <v>186.6131711611825</v>
+        <v>188.0765944417487</v>
       </c>
       <c r="O6" t="n">
-        <v>13.66064314595702</v>
+        <v>13.71410202826815</v>
       </c>
       <c r="P6" t="n">
-        <v>323.7937038896818</v>
+        <v>323.9118872817598</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27772,28 +27826,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2395922441726255</v>
+        <v>0.2302825739556342</v>
       </c>
       <c r="J7" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01238556188476503</v>
+        <v>0.01145919327829892</v>
       </c>
       <c r="M7" t="n">
-        <v>12.76436893838651</v>
+        <v>12.78580122255713</v>
       </c>
       <c r="N7" t="n">
-        <v>276.7725762644069</v>
+        <v>277.2409127950831</v>
       </c>
       <c r="O7" t="n">
-        <v>16.63648329017905</v>
+        <v>16.65055292760823</v>
       </c>
       <c r="P7" t="n">
-        <v>331.2865083079232</v>
+        <v>331.3770424294626</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27850,28 +27904,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2610313640770316</v>
+        <v>0.2584816942596343</v>
       </c>
       <c r="J8" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03721391353817927</v>
+        <v>0.03665481507702151</v>
       </c>
       <c r="M8" t="n">
-        <v>7.743692597400615</v>
+        <v>7.739444339402113</v>
       </c>
       <c r="N8" t="n">
-        <v>107.250039258261</v>
+        <v>107.0732475318044</v>
       </c>
       <c r="O8" t="n">
-        <v>10.35615948401052</v>
+        <v>10.34762038015526</v>
       </c>
       <c r="P8" t="n">
-        <v>348.414081546206</v>
+        <v>348.4388450986229</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27928,28 +27982,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2556478193252341</v>
+        <v>0.2524339009493346</v>
       </c>
       <c r="J9" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K9" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02639492647365405</v>
+        <v>0.02588915814131021</v>
       </c>
       <c r="M9" t="n">
-        <v>9.21299929543107</v>
+        <v>9.203673573238813</v>
       </c>
       <c r="N9" t="n">
-        <v>143.3708713637307</v>
+        <v>143.0493190073165</v>
       </c>
       <c r="O9" t="n">
-        <v>11.97375761253462</v>
+        <v>11.96032269662138</v>
       </c>
       <c r="P9" t="n">
-        <v>366.6506093022626</v>
+        <v>366.6817334539377</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28006,28 +28060,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1589977864955687</v>
+        <v>0.1441150932812497</v>
       </c>
       <c r="J10" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006853880093532938</v>
+        <v>0.005599886032739088</v>
       </c>
       <c r="M10" t="n">
-        <v>11.83643030625952</v>
+        <v>11.89628696765522</v>
       </c>
       <c r="N10" t="n">
-        <v>213.4904909361658</v>
+        <v>215.5175486127496</v>
       </c>
       <c r="O10" t="n">
-        <v>14.61131379911354</v>
+        <v>14.68051595185774</v>
       </c>
       <c r="P10" t="n">
-        <v>380.5717754388201</v>
+        <v>380.717819445329</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28084,28 +28138,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6634184854157382</v>
+        <v>0.6562620355537676</v>
       </c>
       <c r="J11" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1686106504401731</v>
+        <v>0.1655306372362709</v>
       </c>
       <c r="M11" t="n">
-        <v>8.580486332675518</v>
+        <v>8.600778006849723</v>
       </c>
       <c r="N11" t="n">
-        <v>129.1040009644484</v>
+        <v>129.4587811167485</v>
       </c>
       <c r="O11" t="n">
-        <v>11.36239415635844</v>
+        <v>11.37799547885077</v>
       </c>
       <c r="P11" t="n">
-        <v>328.381399561143</v>
+        <v>328.4516865359244</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28165,7 +28219,7 @@
         <v>0.6842959783897199</v>
       </c>
       <c r="J12" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K12" t="n">
         <v>424</v>
@@ -28243,7 +28297,7 @@
         <v>0.5841799894319061</v>
       </c>
       <c r="J13" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K13" t="n">
         <v>415</v>
@@ -28299,7 +28353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N480"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59827,6 +59881,70 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-34.964124103906826,173.64156877176703</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.96455035589637,173.64230506611145</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.96495050276212,173.6430692261072</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-34.96535998044408,173.6438578465322</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-34.965818795741306,173.64464720312463</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-34.96598468806282,173.64560679776963</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-34.96571185067351,173.64658782007706</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-34.96551817214709,173.64748246154502</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-34.965641093154375,173.648382442048</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-34.96586589944667,173.64927009435576</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22024,6 +22024,102 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>342.9122222222222</v>
+      </c>
+      <c r="C482" t="n">
+        <v>332.3222222222223</v>
+      </c>
+      <c r="D482" t="n">
+        <v>331.4857142857143</v>
+      </c>
+      <c r="E482" t="n">
+        <v>332.9533333333333</v>
+      </c>
+      <c r="F482" t="n">
+        <v>314.83</v>
+      </c>
+      <c r="G482" t="n">
+        <v>313.68</v>
+      </c>
+      <c r="H482" t="n">
+        <v>335.1633333333333</v>
+      </c>
+      <c r="I482" t="n">
+        <v>354.79</v>
+      </c>
+      <c r="J482" t="n">
+        <v>385.4233333333333</v>
+      </c>
+      <c r="K482" t="n">
+        <v>326.2972727272727</v>
+      </c>
+      <c r="L482" t="n">
+        <v>344.4166666666667</v>
+      </c>
+      <c r="M482" t="n">
+        <v>354.93</v>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>356.6155555555555</v>
+      </c>
+      <c r="C483" t="n">
+        <v>351.0955555555556</v>
+      </c>
+      <c r="D483" t="n">
+        <v>353.2728571428572</v>
+      </c>
+      <c r="E483" t="n">
+        <v>334.6733333333333</v>
+      </c>
+      <c r="F483" t="n">
+        <v>313.84</v>
+      </c>
+      <c r="G483" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="H483" t="n">
+        <v>351.4733333333333</v>
+      </c>
+      <c r="I483" t="n">
+        <v>371.12</v>
+      </c>
+      <c r="J483" t="n">
+        <v>379.0233333333333</v>
+      </c>
+      <c r="K483" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="L483" t="n">
+        <v>348.2066666666667</v>
+      </c>
+      <c r="M483" t="n">
+        <v>350.51</v>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22035,7 +22131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27263,6 +27359,26 @@
       </c>
       <c r="B522" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -28353,7 +28469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59945,6 +60061,150 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-34.964159233914074,173.64154359712506</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-34.96461771662666,173.64225679473748</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-34.96500446476654,173.6430330396064</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-34.965343277956144,173.64386639488606</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-34.9657412167824,173.64467865404407</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-34.96600270998616,173.64560290420076</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-34.96583970836039,173.64658917507532</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-34.96563252749267,173.64748738186304</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-34.96534064565045,173.64838098774092</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-34.96588957369073,173.64926934925737</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-34.96575161236097,173.65022069797348</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-34.96533832867097,173.65101994528834</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-34.964052808356634,173.64161986305285</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-34.96447191505267,173.64236127748958</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-34.96483247423185,173.64314837493325</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-34.965328985279406,173.64387370989257</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-34.96574968460744,173.6446752211461</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-34.965887121095825,173.64562787671744</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-34.96569264496994,173.64658761654127</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-34.965485370455696,173.64748105020385</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-34.96539835465597,173.6483812670774</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-34.96577939708509,173.64927281683796</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-34.96571817531253,173.65021211845828</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-34.96537416029696,173.6510411449285</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -27552,28 +27552,28 @@
         <v>0.0491</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3410982998409572</v>
+        <v>0.3283589506312595</v>
       </c>
       <c r="J2" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03794220849252117</v>
+        <v>0.03533117719702583</v>
       </c>
       <c r="M2" t="n">
-        <v>10.40691986362898</v>
+        <v>10.42383464921941</v>
       </c>
       <c r="N2" t="n">
-        <v>173.5366983935179</v>
+        <v>173.9826488794009</v>
       </c>
       <c r="O2" t="n">
-        <v>13.17333285063115</v>
+        <v>13.19024824934697</v>
       </c>
       <c r="P2" t="n">
-        <v>355.883814055713</v>
+        <v>356.0098279227149</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27630,28 +27630,28 @@
         <v>0.0469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4128095404177491</v>
+        <v>0.399125446846569</v>
       </c>
       <c r="J3" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06301354850828855</v>
+        <v>0.05905807487979631</v>
       </c>
       <c r="M3" t="n">
-        <v>9.757730312929102</v>
+        <v>9.786114522013792</v>
       </c>
       <c r="N3" t="n">
-        <v>150.13784943741</v>
+        <v>151.0614953854123</v>
       </c>
       <c r="O3" t="n">
-        <v>12.25307510127192</v>
+        <v>12.29070768448311</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1630977813433</v>
+        <v>347.298509282897</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27708,28 +27708,28 @@
         <v>0.0361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4103664882800131</v>
+        <v>0.3992900348050717</v>
       </c>
       <c r="J4" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05853484615494498</v>
+        <v>0.05564134002258259</v>
       </c>
       <c r="M4" t="n">
-        <v>10.04508883222547</v>
+        <v>10.05897105267681</v>
       </c>
       <c r="N4" t="n">
-        <v>159.7821829465689</v>
+        <v>160.3711470837242</v>
       </c>
       <c r="O4" t="n">
-        <v>12.64049773333981</v>
+        <v>12.66377301927527</v>
       </c>
       <c r="P4" t="n">
-        <v>344.6822059714144</v>
+        <v>344.791779640428</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27786,28 +27786,28 @@
         <v>0.0325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4737773270591612</v>
+        <v>0.4577655085125477</v>
       </c>
       <c r="J5" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06161866747719846</v>
+        <v>0.05782214770618099</v>
       </c>
       <c r="M5" t="n">
-        <v>11.26983787641806</v>
+        <v>11.30135151401437</v>
       </c>
       <c r="N5" t="n">
-        <v>201.5681048749444</v>
+        <v>202.2630219162408</v>
       </c>
       <c r="O5" t="n">
-        <v>14.19746825581746</v>
+        <v>14.22192047215287</v>
       </c>
       <c r="P5" t="n">
-        <v>340.2248105424297</v>
+        <v>340.3837961609095</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27864,28 +27864,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3901516690506496</v>
+        <v>0.3736144357611687</v>
       </c>
       <c r="J6" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04637975648982529</v>
+        <v>0.04267436047251583</v>
       </c>
       <c r="M6" t="n">
-        <v>10.54626949380034</v>
+        <v>10.59501468304754</v>
       </c>
       <c r="N6" t="n">
-        <v>188.0765944417487</v>
+        <v>189.0059633584858</v>
       </c>
       <c r="O6" t="n">
-        <v>13.71410202826815</v>
+        <v>13.747943968408</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9118872817598</v>
+        <v>324.0743296502624</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27942,28 +27942,28 @@
         <v>0.0303</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2302825739556342</v>
+        <v>0.2157681548569332</v>
       </c>
       <c r="J7" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01145919327829892</v>
+        <v>0.01010942551782745</v>
       </c>
       <c r="M7" t="n">
-        <v>12.78580122255713</v>
+        <v>12.80542683891685</v>
       </c>
       <c r="N7" t="n">
-        <v>277.2409127950831</v>
+        <v>277.5131673441348</v>
       </c>
       <c r="O7" t="n">
-        <v>16.65055292760823</v>
+        <v>16.65872646225199</v>
       </c>
       <c r="P7" t="n">
-        <v>331.3770424294626</v>
+        <v>331.5184180843007</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28020,28 +28020,28 @@
         <v>0.0333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2584816942596343</v>
+        <v>0.2483243757524859</v>
       </c>
       <c r="J8" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03665481507702151</v>
+        <v>0.0339266990388758</v>
       </c>
       <c r="M8" t="n">
-        <v>7.739444339402113</v>
+        <v>7.760475447886618</v>
       </c>
       <c r="N8" t="n">
-        <v>107.0732475318044</v>
+        <v>107.5520381729142</v>
       </c>
       <c r="O8" t="n">
-        <v>10.34762038015526</v>
+        <v>10.37072987657639</v>
       </c>
       <c r="P8" t="n">
-        <v>348.4388450986229</v>
+        <v>348.5376428664053</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28098,28 +28098,28 @@
         <v>0.0304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2524339009493346</v>
+        <v>0.2412678331897001</v>
       </c>
       <c r="J9" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02588915814131021</v>
+        <v>0.02382070659846314</v>
       </c>
       <c r="M9" t="n">
-        <v>9.203673573238813</v>
+        <v>9.211657345580019</v>
       </c>
       <c r="N9" t="n">
-        <v>143.0493190073165</v>
+        <v>143.2167270660188</v>
       </c>
       <c r="O9" t="n">
-        <v>11.96032269662138</v>
+        <v>11.96731912610418</v>
       </c>
       <c r="P9" t="n">
-        <v>366.6817334539377</v>
+        <v>366.7900100920156</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28176,28 +28176,28 @@
         <v>0.0312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1441150932812497</v>
+        <v>0.142065162690749</v>
       </c>
       <c r="J10" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K10" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005599886032739088</v>
+        <v>0.005495523686565695</v>
       </c>
       <c r="M10" t="n">
-        <v>11.89628696765522</v>
+        <v>11.85622476617371</v>
       </c>
       <c r="N10" t="n">
-        <v>215.5175486127496</v>
+        <v>214.5597150361164</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68051595185774</v>
+        <v>14.64785701173098</v>
       </c>
       <c r="P10" t="n">
-        <v>380.717819445329</v>
+        <v>380.737981937832</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28254,28 +28254,28 @@
         <v>0.0655</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6562620355537676</v>
+        <v>0.6451198638405157</v>
       </c>
       <c r="J11" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K11" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1655306372362709</v>
+        <v>0.1610774236138737</v>
       </c>
       <c r="M11" t="n">
-        <v>8.600778006849723</v>
+        <v>8.62563411515343</v>
       </c>
       <c r="N11" t="n">
-        <v>129.4587811167485</v>
+        <v>129.8341900615501</v>
       </c>
       <c r="O11" t="n">
-        <v>11.37799547885077</v>
+        <v>11.39448068415363</v>
       </c>
       <c r="P11" t="n">
-        <v>328.4516865359244</v>
+        <v>328.5612863707989</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28332,28 +28332,28 @@
         <v>0.066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6842959783897199</v>
+        <v>0.675103584270898</v>
       </c>
       <c r="J12" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2105110206187801</v>
+        <v>0.2067060170168484</v>
       </c>
       <c r="M12" t="n">
-        <v>7.921426083526212</v>
+        <v>7.932682288120876</v>
       </c>
       <c r="N12" t="n">
-        <v>104.3558032203446</v>
+        <v>104.4209332991158</v>
       </c>
       <c r="O12" t="n">
-        <v>10.21546882038923</v>
+        <v>10.21865613958684</v>
       </c>
       <c r="P12" t="n">
-        <v>339.1629049423595</v>
+        <v>339.2535102223155</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28410,28 +28410,28 @@
         <v>0.0426</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5841799894319061</v>
+        <v>0.5775510757591038</v>
       </c>
       <c r="J13" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K13" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1603644614017281</v>
+        <v>0.1582023935418803</v>
       </c>
       <c r="M13" t="n">
-        <v>7.890079134832988</v>
+        <v>7.891689367256272</v>
       </c>
       <c r="N13" t="n">
-        <v>106.4631376023437</v>
+        <v>106.2515828441596</v>
       </c>
       <c r="O13" t="n">
-        <v>10.318097576702</v>
+        <v>10.30784084297772</v>
       </c>
       <c r="P13" t="n">
-        <v>345.0450441772128</v>
+        <v>345.1103148100945</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0037/nzd0037.xlsx
+++ b/data/nzd0037/nzd0037.xlsx
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0424</v>
+        <v>0.0437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0491</v>
+        <v>0.0528</v>
       </c>
       <c r="I2" t="n">
         <v>0.3283639498348975</v>
@@ -27621,13 +27621,13 @@
         <v>0.09112706198220399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0397</v>
+        <v>0.0462</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0469</v>
+        <v>0.0582</v>
       </c>
       <c r="I3" t="n">
         <v>0.399135226414349</v>
@@ -27699,13 +27699,13 @@
         <v>0.182254123961707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0331</v>
+        <v>0.0348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0361</v>
+        <v>0.0428</v>
       </c>
       <c r="I4" t="n">
         <v>0.3992840850414339</v>
@@ -27780,10 +27780,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0296</v>
+        <v>0.0273</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0325</v>
+        <v>0.031</v>
       </c>
       <c r="I5" t="n">
         <v>0.4577506160640947</v>
@@ -27855,13 +27855,13 @@
         <v>0.364108292809272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0434</v>
+        <v>0.0395</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0532</v>
+        <v>0.0507</v>
       </c>
       <c r="I6" t="n">
         <v>0.3736144357611684</v>
@@ -27933,13 +27933,13 @@
         <v>0.4552353547844408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0247</v>
+        <v>0.0333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0303</v>
+        <v>0.0368</v>
       </c>
       <c r="I7" t="n">
         <v>0.215768154856933</v>
@@ -28014,10 +28014,10 @@
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0298</v>
+        <v>0.0293</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0333</v>
+        <v>0.0355</v>
       </c>
       <c r="I8" t="n">
         <v>0.2483064324385235</v>
@@ -28089,13 +28089,13 @@
         <v>0.6365049166921959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0249</v>
+        <v>0.0296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0304</v>
+        <v>0.0328</v>
       </c>
       <c r="I9" t="n">
         <v>0.2412678331897</v>
@@ -28167,13 +28167,13 @@
         <v>0.7276127862969216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0248</v>
+        <v>0.0247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0312</v>
+        <v>0.0257</v>
       </c>
       <c r="I10" t="n">
         <v>0.142042596684741</v>
@@ -28245,13 +28245,13 @@
         <v>0.8187232895892913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0502</v>
+        <v>0.058</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0655</v>
+        <v>0.0707</v>
       </c>
       <c r="I11" t="n">
         <v>0.6451030246381153</v>
@@ -28323,13 +28323,13 @@
         <v>0.9098503515666148</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0544</v>
+        <v>0.0594</v>
       </c>
       <c r="H12" t="n">
-        <v>0.066</v>
+        <v>0.0735</v>
       </c>
       <c r="I12" t="n">
         <v>0.6751142834391443</v>
@@ -28404,10 +28404,10 @@
         <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0392</v>
+        <v>0.0393</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0426</v>
+        <v>0.0423</v>
       </c>
       <c r="I13" t="n">
         <v>0.5775510757591038</v>
